--- a/Input Files/SAMBC Parameters.xlsx
+++ b/Input Files/SAMBC Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26717"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26809"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen.ca.16\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{AE059068-131D-4B4E-AC08-24C045280E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7337151B-22C9-403A-B783-F29D9FAC1AAD}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="13_ncr:1_{AE059068-131D-4B4E-AC08-24C045280E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C795294-5FE4-431D-97FE-6C1C1D9FFAAB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" xr2:uid="{176A3C36-1335-4CA8-891D-C177736AB20F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="253">
   <si>
     <t>Group</t>
   </si>
@@ -136,12 +136,12 @@
     <t>WY</t>
   </si>
   <si>
-    <t>W1 &amp; NW</t>
-  </si>
-  <si>
     <t>W1</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>GJN</t>
   </si>
   <si>
@@ -235,9 +235,6 @@
     <t>WMG</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>SAMS</t>
   </si>
   <si>
@@ -392,6 +389,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>NW-SAMBC</t>
   </si>
   <si>
     <t>Run Date</t>
@@ -631,6 +634,9 @@
     <t>miguel-carlos.macandog@dxc.com</t>
   </si>
   <si>
+    <t>W1 &amp; NW</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
@@ -685,7 +691,7 @@
     <t>chen.ca.16@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;lanlan.ye@gientech.com;zhou.k.7@pg.com;chinadatalake.im@pg.com;liu.x.32@pg.com;you.j.6@pg.com</t>
+    <t>chen.ca.16@pg.com;lanlan.ye@gientech.com;zhou.k.7@pg.com;chinadatalake.im@pg.com;liu.x.32@pg.com;you.j.6@pg.com;tang.k.5@pg.com</t>
   </si>
   <si>
     <t>chen.ca.16@pg.com;huang.yq@pg.com;li.n.13@pg.com;weng.x.2@pg.com;zeng.x.6@pg.com;zhang.y.123@pg.com;ye.z.4@pg.com;jin.l.1@pg.com;xiang.j.2@pg.com;liang.x.7@pg.com;zhou.li.2@pg.com;xuan.j.3@pg.com;yin.x.5@pg.com;wang.ti.3@pg.com;zhang.j.101@pg.com;cao.m.5@pg.com;yang.y.49@pg.com;sun.j.5@pg.com;liu.ll.4@pg.com;xu.h.35@pg.com;pan.l.12@pg.com;qin.q.1@pg.com;zhang.h.59@pg.com;xu.h.7@pg.com;xun.z.2@pg.com;liao.l.5@pg.com;huang.k.15@pg.com;dong.l.3@pg.com;ou.sf@pg.com;chen.k@pg.com;cai.y.14@pg.com;chen.y.138@pg.com;ma.r.6@pg.com;you.j.6@pg.com;wu.q.22@pg.com;zhu.m.13@pg.com;li.p.15@pg.com;chen.l.79@pg.com;wen.l.4@pg.com;lin.z.16@pg.com</t>
@@ -700,25 +706,25 @@
     <t>chen.ca.16@pg.com;yang.da.6@pg.com;yuan.xx@pg.com;li.bo.3@pg.com;qu.t.1@pg.com;zhao.b.5@pg.com;che.x@pg.com;li.b.22@pg.com;zhou.l.21@pg.com;yu.h.10@pg.com;ma.y.24@pg.com;an.l.2@pg.com;liu.y.110@pg.com;zhang.fr.3@pg.com;liang.z.13@pg.com;ding.c.3@pg.com;feng.j@pg.com;zheng.y.19@pg.com;liu.ll.4@pg.com;duan.y.2@pg.com;wang.x.45@pg.com;xinshui.s@pg.com;pan.x.9@pg.com;xie.q.4@pg.com;gao.y.37@pg.com;you.j.6@pg.com;yang.le.10@pg.com;zhang.y.184@pg.com;zhang.m.78@pg.com;wu.y.60@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;you.j.6@pg.com;zhang.wj@pg.com;che.h@pg.com;woos-service@cyberway.net.cn;jin.m.4@pg.com;wang.z.45@pg.com;wang.h.55@pg.com;peng.l@pg.com;fan.k.1@pg.com;ma.z.16@pg.com;shi.w.10@pg.com;chen.y.150@pg.com;wang.h.78@pg.com;xu.b.17@pg.com;ding.d.4@pg.com;shi.sy.16@pg.com;wang.wt.10@pg.com;song.lf@pg.com;zhang.wx@pg.com;shi.y.6@pg.com;feng.w.3@pg.com;guo.x.3@pg.com;yan.t.1@pg.com;meng.q@pg.com;guo.li.7@pg.com;guo.tj@pg.com;liu.s.5@pg.com;zhong.z.14@pg.com;ma.xu.3@pg.com;xie.t.3@pg.com;gao.wt@pg.com;zou.ji.1@pg.com;zhou.y.40@pg.com;xu.m.23@pg.com;yue.q@pg.com;lou.l@pg.com;li.h.12@pg.com;wang.h.4@pg.com;lu.y@pg.com;tao.m.3@pg.com;feng.do@pg.com;yu.gr.1@pg.com;lan.j@pg.com;zeng.z.7@pg.com;cao.q@pg.com;zeng.j.9@pg.com;hao.f@pg.com;liu.si.3@pg.com;chen.y.36@pg.com;wu.r.2@pg.com;yin.ra@pg.com;sun.al@pg.com;zhao.w.12@pg.com;yan.x.7@pg.com;wang.q.32@pg.com;wang.s.79@pg.com;meng.x.3@pg.com;zhang.je.6@pg.com;zhang.x.65@pg.com;xu.y.18@pg.com;chen.j.84@pg.com;zhang.h.50@pg.com;jia.l.5@pg.com;wei.n.2@pg.com;lai.hl@pg.com;gao.xj@pg.com;xing.yf@pg.com;wang.mw@pg.com;li.lz.19@pg.com;qie.je@pg.com;zhang.w.24@pg.com;chen.z.35@pg.com;junqi.mj@pg.com;wen.j.1@pg.com;zhu.yj.2@pg.com;liu.q.31@pg.com;li.w.17@pg.com;liu.jl.24@pg.com;zhang.zy.5@pg.com;song.sj.2@pg.com;zhang.b.32@pg.com;zhu.ff@pg.com;zhu.c.19@pg.com;cheng.l.12@pg.com;lin.j.4@pg.com;fu.d@pg.com;liu.lw.13@pg.com;feng.j.21@pg.com;du.j.3@pg.com;qian.x.1@pg.com</t>
+    <t>chen.ca.16@pg.com;you.j.6@pg.com;zhang.wj@pg.com;che.h@pg.com;woos-service@cyberway.net.cn;jin.m.4@pg.com;wang.z.45@pg.com;wang.h.55@pg.com;peng.l@pg.com;fan.k.1@pg.com;ma.z.16@pg.com;shi.w.10@pg.com;chen.y.150@pg.com;wang.h.78@pg.com;xu.b.17@pg.com;ding.d.4@pg.com;shi.sy.16@pg.com;wang.wt.10@pg.com;song.lf@pg.com;zhang.wx@pg.com;shi.y.6@pg.com;feng.w.3@pg.com;guo.x.3@pg.com;yan.t.1@pg.com;meng.q@pg.com;guo.li.7@pg.com;guo.tj@pg.com;liu.s.5@pg.com;zhong.z.14@pg.com;ma.xu.3@pg.com;xie.t.3@pg.com;gao.wt@pg.com;zou.ji.1@pg.com;zhou.y.40@pg.com;xu.m.23@pg.com;yue.q@pg.com;lou.l@pg.com;li.h.12@pg.com;wang.h.4@pg.com;lu.y@pg.com;tao.m.3@pg.com;feng.do@pg.com;yu.gr.1@pg.com;lan.j@pg.com;zeng.z.7@pg.com;cao.q@pg.com;zeng.j.9@pg.com;hao.f@pg.com;liu.si.3@pg.com;chen.y.36@pg.com;wu.r.2@pg.com;yin.ra@pg.com;sun.al@pg.com;zhao.w.12@pg.com;yan.x.7@pg.com;wang.q.32@pg.com;wang.s.79@pg.com;meng.x.3@pg.com;zhang.je.6@pg.com;zhang.x.65@pg.com;xu.y.18@pg.com;chen.j.84@pg.com;zhang.h.50@pg.com;jia.l.5@pg.com;wei.n.2@pg.com;lai.hl@pg.com;gao.xj@pg.com;xing.yf@pg.com;wang.mw@pg.com;li.lz.19@pg.com;qie.je@pg.com;zhang.w.24@pg.com;chen.z.35@pg.com;junqi.mj@pg.com;wen.j.1@pg.com;zhu.yj.2@pg.com;liu.q.31@pg.com;li.w.17@pg.com;liu.jl.24@pg.com;zhang.zy.5@pg.com;song.sj.2@pg.com;zhang.b.32@pg.com;zhu.ff@pg.com;zhu.c.19@pg.com;cheng.l.12@pg.com;lin.j.4@pg.com;fu.d@pg.com;liu.lw.13@pg.com;feng.j.21@pg.com;du.j.3@pg.com;qian.x.1@pg.com;hao.s.3@pg.com;qin.x.1@pg.com;feng.q.7@pg.com</t>
   </si>
   <si>
     <t>chen.ca.16@pg.com;deng.j.7@pg.com;liang.ku@pg.com;zhang.n.20@pg.com;zhang.sh@pg.com;wu.r.2@pg.com;wang.s.18@pg.com;zhang.x.21@pg.com;liang.bb@pg.com;zhao.zi@pg.com;wang.ji.18@pg.com;lin.wl.4@pg.com;liu.yi.2@pg.com;shi.y.10@pg.com;chen.b.4@pg.com;zhang.m.64@pg.com;lin.x.2@pg.com;zheng.wy@pg.com;chen.jl.1@pg.com;liang.b.7@pg.com;du.q.1@pg.com;yang.m.26@pg.com;zhang.j.125@pg.com;yang.m.26@pg.com;pan.y.6@pg.com;zhang.h.28@pg.com;chen.y.64@pg.com;lin.y.42@pg.com;you.j.6@pg.com;kunluan.z@pg.com;sun.h.2@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;he.y.27@pg.com;xie.s.8@pg.com;wang.co.5@pg.com;guo.wa@pg.com;wang.q.13@pg.com;ye.ma@pg.com;wang.co.5@pg.com;zhang.hu.9@pg.com;chen.k@pg.com;chen.ca.7@pg.com;xie.l.2@pg.com;wang.al.8@pg.com;tan.j.19@pg.com;cheng.z.4@pg.com;jiang.ti@pg.com;chen.ea.1@pg.com;wu.ji.10@pg.com;tan.z.7@pg.com;yang.x@pg.com;deng.ch.1@pg.com;liu.ja.3@pg.com;zhang.x.66@pg.com;zhang.t.4@pg.com;zhang.yi.5@pg.com;zhou.s.3@pg.com;wang.zi.6@pg.com;xu.m.6@pg.com;lin.t.5@pg.com;huang.j.7@pg.com;huang.w.8@pg.com;huang.ji.5@pg.com;zhang.ba.2@pg.com;yuan.ye.1@pg.com;liang.zh.6@pg.com;liao.xi@pg.com;luo.fi@pg.com;zhang.r.20@pg.com;yang.ce.2@pg.com;sun.hu.1@pg.com;yang.y.51@pg.com;qin.x.1@pg.com;liu.l.40@pg.com;wu.b.3@pg.com;zhang.r.27@pg.com;kuang.y.2@pg.com;zhao.c.10@pg.com;lin.k.2@pg.com;zhang.wj@pg.com;chen.t.11@pg.com;gu.we@pg.com;yu.n@pg.com;deng.b.1@pg.com;chen.y.4@pg.com;liu.j.52@pg.com;lin.s.2@pg.com;zhou.n.4@pg.com;lin.y.25@pg.com;qiao.z.1@pg.com;he.f.4@pg.com;he.mi.2@pg.com;wang.b.15@pg.com;peng.j.5@pg.com;li.w.22@pg.com;ding.c.3@pg.com;jin.m.4@pg.com;zhong.x@pg.com;liu.j.66@pg.com;li.j.13@pg.com;huang.y.21@pg.com;xian.b@pg.com;li.g.17@pg.com;zeng.y.1@pg.com;pan.q.1@pg.com;wang.j.15@pg.com;zheng.s.6@pg.com;li.q.31@pg.com;li.w.17@pg.com;li.z.37@pg.com;lu.y.2@pg.com;pan.q.1@pg.com;liu.x.15@pg.com;wu.z.12@pg.com;fang.h.5@pg.com;he.z.9@pg.com;geng.z@pg.com;sun.j.5@pg.com;huang.y.21@pg.com;wu.d.14@pg.com;yang.y.49@pg.com;chen.hs.2@pg.com;gong.y.6@pg.com;liu.m.7@pg.com;liu.ll.4@pg.com;lu.c.16@pg.com;liu.c.21@pg.com;feng.x.9@pg.com;jiang.n.2@pg.com;li.t.7@pg.com;liao.j.5@pg.com;li.x.84@pg.com;zheng.ye@pg.com;xie.z.8@pg.com;zhang.c.35@pg.com;che.h@pg.com;you.j.6@pg.com;liang.y.33@pg.com;hou.y.5@pg.com;zeng.de.1@pg.com;he.z.9@pg.com;lu.y.2@pg.com;lu.c.16@pg.com;kuang.y.2@pg.com;chen.ca.7@pg.com;che.h@pg.com;yang.y.49@pg.com;cai.y.14@pg.com;hu.jo.1@pg.com;lu.y.2@pg.com;xu.b.4@pg.com;chen.k@pg.com;cai.y.14@pg.com;wang.j.134@pg.com;wu.j.55@pg.com;lyu.y.4@pg.com;zhou.x.18@pg.com;chen.w.54@pg.com;chen.y.148@pg.com;yan.b.1@pg.com;liu.c.42@pg.com;zhong.l.6@pg.com;you.j.6@pg.com;liao.d.1@pg.com;wang.c.51@pg.com;huang.j.54@pg.com;wang.j.15@pg.com;chu.s@pg.com;cao.l@pg.com;zhang.y.123@pg.com;sun.z.8@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
-  </si>
-  <si>
-    <t>chen.ca.16@pg.com;tao.an@pg.com;wang.ad.2@pg.com;wang.s.31@pg.com;sun.h.5@pg.com;qiu.l.6@pg.com;pan.y.15@pg.com;cheng.y.21@pg.com;liu.ll.4@pg.com;geng.z@pg.com;yu.n@pg.com;xu.iv@pg.com;pan.x.2@pg.com;ren.y.8@pg.com;zhang.wj@pg.com;chen.a.30@pg.com;chen.r.31@pg.com;li.h.65@pg.com;wang.le@pg.com;huang.y.80@pg.com;shi.k@pg.com;you.j.6@pg.com;wan.yy@pg.com;li.s.45@pg.com;liu.z.22@pg.com;li.y.185@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
-  </si>
-  <si>
-    <t>chen.ca.16@pg.com;jin.he@pg.com;wu.s@pg.com;wu.yo.2@pg.com;li.ka.7@pg.com;zhang.h.20@pg.com;li.qi.21@pg.com;lu.x.2@pg.com;yin.w@pg.com;ma.c.4@pg.com;liu.b.22@pg.com;liang.y.24@pg.com;wang.r.26@pg.com;liu.y.120@pg.com;li.x.69@pg.com;wang.y.120@pg.com;wang.y.46@pg.com;wang.y.110@pg.com;zhang.y.29@pg.com;garong.y@pg.com;liu.ll.4@pg.com;huo.w@pg.com;liu.y.120@pg.com;zhang.y.8@pg.com;zheng.me@pg.com;cheng.y.16@pg.com;xu.l.24@pg.com;qing.z.1@pg.com;wang.hu.7@pg.com;wang.hu.7@pg.com;guo.j.16@pg.com;he.y.27@pg.com;sun.g.4@pg.com;jiang.h.12@pg.com;cheng.c.15@pg.com;li.y.172@pg.com;wang.j.126@pg.com;zhang.s.58@pg.com;zheng.y.29@pg.com;you.j.6@pg.com;wang.w.76@pg.com;chen.x.85@pg.com;wang.y.202@pg.com;song.m.1@pg.com;qian.yd@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
+    <t>chen.ca.16@pg.com;he.y.27@pg.com;xie.s.8@pg.com;wang.co.5@pg.com;guo.wa@pg.com;wang.q.13@pg.com;ye.ma@pg.com;wang.co.5@pg.com;zhang.hu.9@pg.com;chen.k@pg.com;chen.ca.7@pg.com;xie.l.2@pg.com;wang.al.8@pg.com;tan.j.19@pg.com;cheng.z.4@pg.com;jiang.ti@pg.com;chen.ea.1@pg.com;wu.ji.10@pg.com;tan.z.7@pg.com;yang.x@pg.com;deng.ch.1@pg.com;liu.ja.3@pg.com;zhang.x.66@pg.com;zhang.t.4@pg.com;zhang.yi.5@pg.com;zhou.s.3@pg.com;wang.zi.6@pg.com;xu.m.6@pg.com;lin.t.5@pg.com;huang.j.7@pg.com;huang.w.8@pg.com;huang.ji.5@pg.com;zhang.ba.2@pg.com;yuan.ye.1@pg.com;liang.zh.6@pg.com;liao.xi@pg.com;luo.fi@pg.com;zhang.r.20@pg.com;yang.ce.2@pg.com;sun.hu.1@pg.com;yang.y.51@pg.com;qin.x.1@pg.com;liu.l.40@pg.com;wu.b.3@pg.com;zhang.r.27@pg.com;kuang.y.2@pg.com;zhao.c.10@pg.com;lin.k.2@pg.com;zhang.wj@pg.com;chen.t.11@pg.com;gu.we@pg.com;yu.n@pg.com;deng.b.1@pg.com;chen.y.4@pg.com;liu.j.52@pg.com;lin.s.2@pg.com;zhou.n.4@pg.com;lin.y.25@pg.com;qiao.z.1@pg.com;he.f.4@pg.com;he.mi.2@pg.com;wang.b.15@pg.com;peng.j.5@pg.com;li.w.22@pg.com;ding.c.3@pg.com;jin.m.4@pg.com;zhong.x@pg.com;liu.j.66@pg.com;li.j.13@pg.com;huang.y.21@pg.com;xian.b@pg.com;li.g.17@pg.com;zeng.y.1@pg.com;pan.q.1@pg.com;wang.j.15@pg.com;zheng.s.6@pg.com;li.q.31@pg.com;li.w.17@pg.com;li.z.37@pg.com;lu.y.2@pg.com;pan.q.1@pg.com;liu.x.15@pg.com;wu.z.12@pg.com;fang.h.5@pg.com;he.z.9@pg.com;geng.z@pg.com;sun.j.5@pg.com;huang.y.21@pg.com;wu.d.14@pg.com;yang.y.49@pg.com;chen.hs.2@pg.com;gong.y.6@pg.com;liu.m.7@pg.com;liu.ll.4@pg.com;lu.c.16@pg.com;liu.c.21@pg.com;feng.x.9@pg.com;jiang.n.2@pg.com;li.t.7@pg.com;liao.j.5@pg.com;li.x.84@pg.com;zheng.ye@pg.com;xie.z.8@pg.com;zhang.c.35@pg.com;che.h@pg.com;you.j.6@pg.com;liang.y.33@pg.com;hou.y.5@pg.com;zeng.de.1@pg.com;he.z.9@pg.com;lu.y.2@pg.com;lu.c.16@pg.com;kuang.y.2@pg.com;chen.ca.7@pg.com;che.h@pg.com;yang.y.49@pg.com;cai.y.14@pg.com;hu.jo.1@pg.com;lu.y.2@pg.com;xu.b.4@pg.com;chen.k@pg.com;cai.y.14@pg.com;wang.j.134@pg.com;wu.j.55@pg.com;lyu.y.4@pg.com;zhou.x.18@pg.com;chen.w.54@pg.com;chen.y.148@pg.com;yan.b.1@pg.com;liu.c.42@pg.com;zhong.l.6@pg.com;you.j.6@pg.com;liao.d.1@pg.com;wang.c.51@pg.com;huang.j.54@pg.com;wang.j.15@pg.com;chu.s@pg.com;cao.l@pg.com;zhang.y.123@pg.com;sun.z.8@pg.com;liang.r.3@pg.com;chen.by.1@pg.com;lai.yu@pg.com</t>
+  </si>
+  <si>
+    <t>chen.ca.16@pg.com;tao.an@pg.com;wang.ad.2@pg.com;wang.s.31@pg.com;sun.h.5@pg.com;qiu.l.6@pg.com;pan.y.15@pg.com;cheng.y.21@pg.com;liu.ll.4@pg.com;geng.z@pg.com;yu.n@pg.com;xu.iv@pg.com;pan.x.2@pg.com;ren.y.8@pg.com;zhang.wj@pg.com;chen.a.30@pg.com;chen.r.31@pg.com;li.h.65@pg.com;wang.le@pg.com;huang.y.80@pg.com;shi.k@pg.com;you.j.6@pg.com;wan.yy@pg.com;li.s.45@pg.com;liu.z.22@pg.com;li.y.185@pg.com;liang.r.3@pg.com;chen.by.1@pg.com;he.x.7@pg.com</t>
+  </si>
+  <si>
+    <t>qian.yd@pg.com;wu.yo.2@pg.com;chen.ca.16@pg.com;li.ka.7@pg.com;lu.x.2@pg.com;liang.y.24@pg.com;liu.y.120@pg.com;wang.y.46@pg.com;liu.ll.4@pg.com;huo.w@pg.com;guo.j.16@pg.com; he.y.27@pg.com;sun.g.4@pg.com;jiang.h.12@pg.com;zhang.s.58@pg.com;you.j.6@pg.com;wang.w.76@pg.com; chen.x.85@pg.com; liang.r.3@pg.com;chen.by.1@pg.com;sun.j.5@pg.com</t>
   </si>
   <si>
     <t>chen.ca.16@pg.com;tao.x.2@pg.com;wang.y.107@pg.com;ma.d@pg.com;yang.b.15@pg.com;zhang.y.136@pg.com;geng.z@pg.com;yu.n@pg.com;liu.ll.4@pg.com;qiu.s.2@pg.com;chen.y.42@pg.com;lu.w.2@pg.com;wang.j.134@pg.com;zhang.b.27@pg.com;zhang.h.64@pg.com;you.j.6@pg.com;xie.c.4@pg.com;ren.y.12@pg.com;li.s.45@pg.com;liu.z.22@pg.com;chen.z.48@pg.com;song.y.29@pg.com;sun.z.8@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;wei.z.6@pg.com;zhang.ju.8@pg.com;liu.l.40@pg.com;wang.z.7@pg.com;liu.y.109@pg.com;he.x.7@pg.com;liu.ll.4@pg.com;geng.z@pg.com;yu.n@pg.com;shi.y.13@pg.com;wang.t.31@pg.com;zhang.sy.3@pg.com;chen.m.10@pg.com;xia.j.1@pg.com;xue.j.2@pg.com;huang.li.2@pg.com;you.j.6@pg.com;li.s.45@pg.com;liu.z.22@pg.com;jin.s.5@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
+    <t>chen.ca.16@pg.com;wei.z.6@pg.com;zhang.ju.8@pg.com;liu.l.40@pg.com;wang.z.7@pg.com;liu.y.109@pg.com;liu.ll.4@pg.com;geng.z@pg.com;yu.n@pg.com;shi.y.13@pg.com;wang.t.31@pg.com;zhang.sy.3@pg.com;chen.m.10@pg.com;xia.j.1@pg.com;xue.j.2@pg.com;huang.li.2@pg.com;you.j.6@pg.com;li.s.45@pg.com;liu.z.22@pg.com;jin.s.5@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
   </si>
   <si>
     <t>chen.ca.16@pg.com;you.j.6@pg.com;jin.he@pg.com;wu.s@pg.com;zhang.m.37@pg.com;qian.yd@pg.com;du.mo@pg.com;liu.n.7@pg.com;xu.y.29@pg.com;li.vi.6@pg.com;wang.j.5@pg.com;li.m.20@pg.com;liu.ll.4@pg.com;cheng.s.3@pg.com;yuan.z@pg.com;zhou.m.19@pg.com;huang.k.15@pg.com;chen.l.71@pg.com;guo.j.16@pg.com;zhong.j.17@pg.com;yu.z.9@pg.com;chen.l.71@pg.com;yang.y.64@pg.com;li.z.59@pg.com;you.j.6@pg.com;yan.y.19@pg.com;wu.q.27@pg.com;qian.yd@pg.com;wang.x.30@pg.com</t>
@@ -727,7 +733,7 @@
     <t>chen.ca.16@pg.com;he.y.27@pg.com;jin.he@pg.com;liu.yz@pg.com;yuan.r.1@pg.com;wan.s.3@pg.com;liu.ll.4@pg.com;tang.l.14@pg.com;duan.x.4@pg.com;huang.k.15@pg.com;guo.j.16@pg.com;han.y.14@pg.com;luo.k.2@pg.com;chen.s.51@pg.com;luo.j.22@pg.com;yao.w.3@pg.com;zhang.k.8@pg.com;you.j.6@pg.com;qian.yd@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;wang.qj@pg.com;wan.ji@pg.com;luo.ju@pg.com;zhou.l.3@pg.com;zhu.pr@pg.com;miao.li.2@pg.com;tang.ji.3@pg.com;liu.q.11@pg.com;wang.e.5@pg.com;xu.do.4@pg.com;du.ji.2@pg.com;wang.li.36@pg.com;fang.yi.2@pg.com;su.ya.3@pg.com;wang.yi.16@pg.com;zhang.ji.47@pg.com;zhao.we.7@pg.com;zhang.da.11@pg.com;gao.ju.2@pg.com;wang.t.9@pg.com;li.y.45@pg.com;han.l.1@pg.com;wang.j.57@pg.com;chen.yi@pg.com;yuan.xx@pg.com;liang.an.2@pg.com;zhao.g.9@pg.com;zhang.h.50@pg.com;yuan.j.3@pg.com;chen.j.84@pg.com;li.y.38@pg.com;guo.f.8@pg.com;liu.w.36@pg.com;hao.s.3@pg.com;zhang.x.50@pg.com;geng.z@pg.com;liu.ll.4@pg.com;yan.z.5@pg.com;feng.b@pg.com;fang.ca@pg.com;wang.x.45@pg.com;duan.y.2@pg.com;liu.m.33@pg.com;yige.z@pg.com;zhang.x.65@pg.com;dong.l.3@pg.com;ou.sf@pg.com;zhang.k.8@pg.com;bai.w.3@pg.com;dang.x.1@pg.com;guo.f.8@pg.com;you.j.6@pg.com;yang.le.10@pg.com;rong.an@pg.com;liu.s.54@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
+    <t>chen.ca.16@pg.com;wang.qj@pg.com;wan.ji@pg.com;luo.ju@pg.com;zhou.l.3@pg.com;zhu.pr@pg.com;miao.li.2@pg.com;tang.ji.3@pg.com;liu.q.11@pg.com;wang.e.5@pg.com;xu.do.4@pg.com;du.ji.2@pg.com;wang.li.36@pg.com;fang.yi.2@pg.com;su.ya.3@pg.com;wang.yi.16@pg.com;zhang.ji.47@pg.com;zhao.we.7@pg.com;zhang.da.11@pg.com;gao.ju.2@pg.com;wang.t.9@pg.com;li.y.45@pg.com;han.l.1@pg.com;wang.j.57@pg.com;chen.yi@pg.com;yuan.xx@pg.com;liang.an.2@pg.com;zhao.g.9@pg.com;zhang.h.50@pg.com;yuan.j.3@pg.com;chen.j.84@pg.com;li.y.38@pg.com;guo.f.8@pg.com;liu.w.36@pg.com;hao.s.3@pg.com;zhang.x.50@pg.com;geng.z@pg.com;liu.ll.4@pg.com;yan.z.5@pg.com;feng.b@pg.com;fang.ca@pg.com;wang.x.45@pg.com;duan.y.2@pg.com;liu.m.33@pg.com;yige.z@pg.com;zhang.x.65@pg.com;dong.l.3@pg.com;ou.sf@pg.com;zhang.k.8@pg.com;bai.w.3@pg.com;dang.x.1@pg.com;guo.f.8@pg.com;you.j.6@pg.com;yang.le.10@pg.com;rong.an@pg.com;liu.s.54@pg.com;liang.r.3@pg.com;chen.by.1@pg.com;liang.r.3@pg.com;zhou.y.53@pg.com</t>
   </si>
   <si>
     <t>chen.ca.16@pg.com;wei.z.6@pg.com;sun.t@pg.com;chen.qi.7@pg.com;yu.an.4@pg.com;wang.j.23@pg.com;wang.wj.3@pg.com;xiao.x.7@pg.com;li.y.106@pg.com;li.x.13@pg.com;zhang.s.23@pg.com;ma.t.5@pg.com;wang.z.36@pg.com;wu.s.37@pg.com;wang.x.107@pg.com;duan.y.2@pg.com;liu.ll.4@pg.com;wang.x.45@pg.com;sun.z.11@pg.com;zhang.x.42@pg.com;li.j.60@pg.com;liu.y.137@pg.com;xu.l.19@pg.com;zhang.z.68@pg.com;li.r.35@pg.com;tian.y.12@pg.com;li.x.104@pg.com;you.j.6@pg.com</t>
@@ -742,10 +748,10 @@
     <t>chen.ca.16@pg.com;you.j.6@pg.com;wang.ra.2@pg.com;liu.qi.18@pg.com;wang.we.31@pg.com;xu.q.12@pg.com;duan.y.2@pg.com;hao.y.2@pg.com;yu.j.5@pg.com;gao.t.2@pg.com;li.t@pg.com;fu.b.1@pg.com;yang.z.29@pg.com;song.z.2@pg.com;you.j.6@pg.com;yang.le.10@pg.com;pan.t.3@pg.com;huang.s.48@pg.com;wang.li.36@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;ma.qi.1@pg.com;lu.a.9@pg.com;zou.s.1@pg.com;gao.s@pg.com;gong.j.9@pg.com;che.h@pg.com;duan.y.2@pg.com;li.lx.2@pg.com;zheng.x.11@pg.com;tao.j.1@pg.com;zhang.d.17@pg.com;si.y@pg.com;yin.w@pg.com;you.j.6@pg.com;sun.h.9@pg.com;liu.t.17@pg.com;liang.r.3@pg.com;chen.by.1@pg.com</t>
-  </si>
-  <si>
-    <t>chen.ca.16@pg.com;zhao.xy.1@pg.com;zhang.t.18@pg.com;cao.an@pg.com;feng.ho@pg.com;ma.xu.3@pg.com;li.sh.12@pg.com;situ.w@pg.com;luo.x.2@pg.com;luo.x.2@pg.com;zhang.zp.2@pg.com;feng.ho@pg.com;wu.ji.10@pg.com;tian.t.1@pg.com;wang.l.33@pg.com;chen.lc.4@pg.com;lin.sh.1@pg.com;jiang.ti@pg.com;lin.c@pg.com;chen.si.6@pg.com;chiang.h@pg.com;zhu.x.1@pg.com;li.ho.4@pg.com;woos-service@cyberway.net.cn;ecomreporting@cyberway.net.cn;wang.f.6@pg.com;yin.ny@pg.com;wang.yc@pg.com;tian.z.2@pg.com;ou.g@pg.com;wang.le@pg.com;tan.tl.3@pg.com;xian.m@pg.com;wei.n.2@pg.com;li.xi.1@pg.com;lu.p@pg.com;he.li@pg.com;yu.d.1@pg.com;luo.m.2@pg.com;li.s.68@pg.com;zhang.c.7@pg.com;zhu.x.12@pg.com;shi.p.4@pg.com;huang.p.11@pg.com;wu.b.3@pg.com;zhu.x.12@pg.com;shi.p.4@pg.com;yang.z.19@pg.com;ou.sf@pg.com;chen.cl@pg.com;zhang.w.24@pg.com;guan.gl@pg.com;zhang.k.8@pg.com;yige.z@pg.com;liu.m.33@pg.com;cheng.l.6@pg.com;deng.j.7@pg.com;xu.z.4@pg.com;kang.j.2@pg.com;liu.y.19@pg.com;li.x.69@pg.com;zhang.m.67@pg.com;liu.y.109@pg.com;you.j.6@pg.com;zhang.w.24@pg.com;liu.s.54@pg.com</t>
+    <t>chen.ca.16@pg.com;ma.qi.1@pg.com;lu.a.9@pg.com;zou.s.1@pg.com;gao.s@pg.com;gong.j.9@pg.com;che.h@pg.com;duan.y.2@pg.com;li.lx.2@pg.com;zheng.x.11@pg.com;zhang.d.17@pg.com;si.y@pg.com;yin.w@pg.com;you.j.6@pg.com;sun.h.9@pg.com;liu.t.17@pg.com;liang.r.3@pg.com;chen.by.1@pg.com;liang.z.13@pg.com</t>
+  </si>
+  <si>
+    <t>chen.ca.16@pg.com;zhao.xy.1@pg.com;zhang.t.18@pg.com;cao.an@pg.com;feng.ho@pg.com;ma.xu.3@pg.com;li.sh.12@pg.com;situ.w@pg.com;luo.x.2@pg.com;luo.x.2@pg.com;zhang.zp.2@pg.com;feng.ho@pg.com;wu.ji.10@pg.com;tian.t.1@pg.com;wang.l.33@pg.com;chen.lc.4@pg.com;lin.sh.1@pg.com;jiang.ti@pg.com;lin.c@pg.com;chen.si.6@pg.com;chiang.h@pg.com;zhu.x.1@pg.com;li.ho.4@pg.com;woos-service@cyberway.net.cn;ecomreporting@cyberway.net.cn;wang.f.6@pg.com;yin.ny@pg.com;wang.yc@pg.com;tian.z.2@pg.com;tan.tl.3@pg.com;he.li@pg.com;luo.m.2@pg.com;li.s.68@pg.com;zhang.c.7@pg.com;huang.p.11@pg.com;wu.b.3@pg.com;zhu.x.12@pg.com;shi.p.4@pg.com;yang.z.19@pg.com;ou.sf@pg.com;chen.cl@pg.com;zhang.w.24@pg.com;guan.gl@pg.com;zhang.k.8@pg.com;cheng.l.6@pg.com;deng.j.7@pg.com;xu.z.4@pg.com;kang.j.2@pg.com;liu.y.19@pg.com;liu.y.109@pg.com;you.j.6@pg.com;zhang.w.24@pg.com;liu.s.54@pg.com;yang.l.10@pg.com;li.z.37@pg.com; Chen.yu.18@pg.com; ma.j.9@pg.com; zhang.x.66@pg.com; shen.y.10@pg.com; sun.w.10@pg.com</t>
   </si>
   <si>
     <t>chen.ca.16@pg.com;wei.z.6@pg.com;zhang.wj@pg.com;he.sw@pg.com;ecomreporting@cyberway.net.cn;liang.nl@pg.com;liu.l.45@pg.com;woos-service@cyberway.net.cn;chen.t.11@pg.com;chen.xi@pg.com;li.wh@pg.com;zhao.m.2@pg.com;cui.q.1@pg.com;gao.br@pg.com;xiao.xl.4@pg.com;li.h.15@pg.com;li.c.38@pg.com;li.c.33@pg.com;zhang.x.68@pg.com;guan.gl@pg.com;ho.w.2@pg.com;lu.p@pg.com;luo.f.1@pg.com;cheng.b.3@pg.com;wang.j.134@pg.com;liu.x.15@pg.com;yang.a.6@pg.com;you.j.6@pg.com;wang.b.23@pg.com;jia.b.1@pg.com</t>
@@ -763,19 +769,19 @@
     <t>chen.ca.16@pg.com;li.vi.5@pg.com;huang.s.28@pg.com;liu.lq.24@pg.com;guan.gl@pg.com;alice.y@pg.com;wang.s.18@pg.com;tao.s.4@pg.com;tang.j.4@pg.com;tang.j.4@pg.com;you.sa@pg.com;you.j.6@pg.com;jin.yu@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;julan.shao@mecoolchina.cn;wang.ti.3@pg.com;shu.chen@dawson.com.cn;qin.lin@dawson.com.cn;li.me.8@pg.com;li.duan@mecoolchina.cn;rsm_liudong@spoc.greatsource.cn;rsm_fuxiaohuan@spoc.greatsource.cn;rsm_zhangshuchen@spoc.greatsource.cn;rsm_wanglei@spoc.greatsource.cn;rsm_shentaiyu@spoc.greatsource.cn;rsm_wuhaitao@spoc.greatsource.cn;rsm_wuhuimin@spoc.greatsource.cn;rsm_maning@spoc.greatsource.cn;you.sa@pg.com;cuihua.zhou@mecoolchina.cn;xian.hua@mecoolchina.cn;jianwei.zhang@mecoolchina.cn;hengwei.sun@mecoolchina.cn;chenjun@dawson.com.cn;qun.tang@mecoolchina.cn;jing.chen5@mecoolchian.cn;feng.w.3@pg.com;shanqi.cui@mecoolchina.cn;lu.y.3@pg.com;wang.x.22@pg.com;dong.s.3@pg.com;zhao.j.16@pg.com;ma.y.2@pg.com;rsm_tengweili@spoc.greatsource.cn;zhao.yu.4@pg.com;zhang.j.51@pg.com;ke.s@pg.com;jue.gu@dawson.com.cn;fei.du@dawson.com.cn;ke.s@pg.com;xu.c.18@pg.com;wang.fr@pg.com;chen.w.36@pg.com;huifen.zhang@mecoolchina.cn;xie.l.6@pg.com;hua.m@pg.com;deng.m.1@pg.com;zhang.q.32@pg.com;chen.s.46@pg.com;zhang.ch.13@pg.com;lan.j@pg.com;du.j.3@pg.com;cao.na@pg.com;wei.ws.1@pg.com;yang.y.40@pg.com;zhang.na.8@pg.com;chen.l.33@pg.com;zhang.xy@pg.com;tan.q@pg.com;dai.r.1@pg.com;wen.y.7@pg.com;chen.y.2@pg.com;rsm_yuxin@spoc.greatsource.cn;wu.h.20@pg.com;zhou.w.13@pg.com;chunyun.li@mecoolchina.cn;jiahua.liu@mecoolchina.cn;yali.rao@mecoolchina.cn;gong.y.1@pg.com;zhen.lz.1@pg.com;guan.gl@pg.com;zhou.ev@pg.com;zhang.z.66@pg.com;yang.l.49@pg.com;wu.p.7@pg.com;zhang.s.54@pg.com;hu.re.1@pg.com;jin.yu@pg.com;hou.z.6@pg.com;tang.j.4@pg.com;you.j.6@pg.com;zhou.ke@pg.com</t>
-  </si>
-  <si>
-    <t>chen.ca.16@pg.com;st219_dryfd_fm@maidelong.com;st61_dryfd_fm@maidelong.com;st198_dry_fd_fm.cn@maidelong.com;ST24_Dry_FD_FM.CN@maidelong.com;st228_dry_fd_fm.cn@maidelong.com;ST56_DRY_FD_FM.CN@maidelong.com;ST225_DRY_FD_FM.CNCN_YueLust225_dry_fd_fm.cn@maidelong.com;ST10_Dry_FD_FM.CN@maidelong.com;st163_dry_fd_fm.cn@maidelong.com;ST11_Dry_FD_FM.CN@maidelong.com;St229_dry_fd_fm.cn@maidelong.com;St216_dry_fd_fm.cn@maidelong.com;St159_dry_fd_fm.cn@maidelong.com;St210_dry_fd_fm.cn@maidelong.com;st173_dry_fd_fm.cn@maidelong.com;st128_dry_fd_fm.cn@maidelong.com;ST12_Dry_FD_FM.CN@maidelong.com;ST13_Dry_FD_FM.CN@maidelong.com;ST14_Dry_FD_FM.CN@maidelong.com;ST15_Dry_FD_FM.CN@maidelong.com;ST179_Dry_FD_FM.CN@maidelong.com;ST56_DRY_FD_FM.CN@maidelong.com;ST17_Dry_FD_FM.CN@maidelong.com;ST18_Dry_FD_FM.CN@maidelong.com;ST27_Dry_FD_FM.CN@maidelong.com;ST38_Dry_FD_FM.CN@maidelong.com;ST40_DRY_FD_FM.CN@maidelong.com;ST41_Dry_FD_FM.CN@maidelong.com;ST42_DRY_FD_FM.CN@maidelong.com;st44_dry_fd_fm.cn@maidelong.com;ST50_Dry_FD_FM.CN@maidelong.com;ST54_DRY_FD_FM.CN@maidelong.com;ST55_Dry_FD_FM.CN@maidelong.com;ST60_DRY_FD_FM.CN@maidelong.com;ST62_Dry_FD_FM.CN@maidelong.com;ST66_Dry_FD_FM.CN@maidelong.com;ST67_DRY_FD_FM.CN@maidelong.com;st68_dry_fd_fm.cn@maidelong.com;ST70_DRY_FD_FM.CN@maidelong.com;ST72_DRY_FD_FM.CN@maidelong.com;ST74_DRY_FD_FM.CN@maidelong.com;ST76_Dry_FD_FM.CN@maidelong.com;st80_dry_fd_fm.cn@maidelong.com;ST105_DRY_FD_FM.CN@maidelong.com;ST130_DRY_FD_FM.CN@maidelong.com;ST139_DRY_FD_FM.CN@maidelong.com;ST141_DRY_FD_FM.CN@maidelong.com;ST164_DRY_FD_FM.CN@maidelong.com;ST22_Dry_FD_FM.CN@maidelong.com;st69_dry_fd_fm.cn@maidelong.com;ST16_Dry_FD_FM.CN@maidelong.com;ST19_Dry_FD_FM.CN@maidelong.com;ST23_Dry_FD_FM.CN@maidelong.com;ST25_Dry_FD_FM.CN@maidelong.com;ST28_Dry_FD_FM.CN@maidelong.com;st29_dry_fd_fm.cn@maidelong.com;ST30_Dry_FD_FM.CN@maidelong.com;ST34_Dry_FD_FM.CN@maidelong.com;ST36_DRY_FD_FM.CN@maidelong.com;st43_dry_fd_fm.cn@maidelong.com;ST47_Dry_FD_FM.CN@maidelong.com;ST51_Dry_FD_FM.CN@maidelong.com;ST53_Dry_FD_FM.CN@maidelong.com;ST57_Dry_FD_FM.CN@maidelong.com;ST61_DRY_FD_FM.CN@maidelong.com;ST63_DRY_FD_FM.CN@maidelong.com;ST78_DRY_FD_FM.CN@maidelong.com;ST132_DRY_FD_FM.CN@maidelong.com;ST134_DRY_FD_FM.CN@maidelong.com;ST144_DRY_FD_FM.CN@maidelong.com;ST149_DRY_FD_FM.CN@maidelong.com;ST158_DRY_FD_FM.CN@maidelong.com;ST162_DRY_FD_FM.CN@maidelong.com;ST168_DRY_FD_FM.CN@maidelong.com;ST20_Dry_FD_FM.CN@maidelong.com;ST21_Dry_FD_FM.CN@maidelong.com;ST26_Dry_FD_FM.CN@maidelong.com;ST31_Dry_FD_FM.CN@maidelong.com;ST33_Dry_FD_FM.CN@maidelong.com;ST35_Dry_FD_FM.CN@maidelong.com;ST37_Dry_FD_FM.CN@maidelong.com;ST39_Dry_FD_FM.CN@maidelong.com;ST46_Dry_FD_FM.CN@maidelong.com;ST56_DRY_FD_FM.CN@maidelong.com;st58_dry_fd_fm.cn@maidelong.com;ST59_DRY_FD_FM.CN@maidelong.com;ST71_DRY_FD_FM.CN@maidelong.com;ST109_DRY_FD_FM.CN@maidelong.com;ST121_DRY_FD_FM.CN@maidelong.com;ST160_DRY_FD_FM.CN@maidelong.com;ST127_DRY_FD_FM.CN@maidelong.com;ST56_DRY_FD_FM.CN@maidelong.com;ST123_DRY_FD_FM.CN@maidelong.com;st127_fom.cn@maidelong.com;ST70_DRY_FD_FM.CN@maidelong.com;ST124_DRY_FD_FM.CN@maidelong.com;st125_dry_fd_fm.cn@maidelong.com;ST191_DRY_FD_FM.CN@maidelong.com;_dry_fd_fm.cn@maidelong.com;fm.cn@maidelong.com;STOCK01.CN@maidelong.com;st219_dryfd_fm@maidelong.com;shuai.zheng@dawson.com.cn;ting.zhang@mecoolchina.cn;xuefei.luo@dawson.com.cn;hong.li@dawson.com.cn;RSM_liguoqiang@spoc.greatsource.cn;li.duan@mecoolchina.cn;fengying.wang@mecoolchina.cn;aihua.cao@mecoolchina.cn;rsm_wangleirsm_wanglei@spoc.greatsource.cn;fei.du@dawson.com.cn;kai.li@mecoolchina.cn;RSM_liuweijie@spoc.greatsource.cn;xiuping.jiang@dawson.com.cn;shirong.yang@mecoolchina.cn;lina.huang@dawson.com.cn;xiaojing.dai@dawson.com.cn;delin.weng@mecoolchina.cn;xuefei.luo@dawson.com.cn;yan.fei@dawson.com.cn;jun.liu@dawson.com.cn;fenglian.wu@dawson.com.cn;KSR_wangli@spoc.greatsource.cn;chunmei.ge@mecoolchina.cn;hong.li@dawson.com.cn;ting.zhang@mecoolchina.cn;na.liu@dawson.com.cn;ying.yan@mecoolchina.cn;KSR_sunzhigang@spoc.greatsource.cn;long.guo@mecoolchina.cn;rong.zhou@mecoolchina.cn;chunyan.lu@mecoolchina.cn;xiaoyan.han@mecoolchina.cn;wang.xingxing@dawson.com.cn;qingbi.peng@mecoolchina.cn;KSR_wangnaying@spoc.greatsource.cn;KSR_kangjianing@spoc.greatsource.cn;xianfei.fang@dawson.com.cn;ran.chen@dawson.com.cn;tingyan.hao@mecoolchina.cn;dongyi.peng@dawson.com.cn;KSR_songxuemei@spoc.greatsource.cn;yingying.xu@mecoolchina.cn;KSR_sunxiaochen@spoc.greatsource.cn;KSR_tianyu@spoc.greatsource.cn;rsm_lijing7066@spoc.greatsource.cn;ISR_dengxibo@spoc.greatsource.cn;wan.yy@pg.com;ST216_Dry_FD_FM.CN@maidelong.com;ST159_Dry_FD_FM.CN@maidelong.com;cai.m.3@pg.com;qijie.wang@mecoolchina.cn;yan.sa@pg.com;gengchun.wang@dawson.com.cn;shanqi.cui@mecoolchina.cn;rsm_jiangbinrsm_jiangbin@spoc.greatsource.cn;rsm_zhouyu@spoc.greatsource.cn;rsm_lijing7066@spoc.greatsource.cn;rsm_tengweili@spoc.greatsource.cn;rsm_pengwei@spoc.greatsource.cn;rsm_wangmingchen@spoc.greatsource.cn;fuyou.luo@dawson.com.cn;sha.wang@mecoolchina.cn;jun.liu@dawson.com.cn;lianghuai.zhang@dawson.com.cn;xiaozheng188@126.com;yanping.fan@dawson.com.cn;jie.shen@dawson.com.cn;KSR_zhangxiaowei@spoc.greatsource.cn;ksr_taoxinxin@spoc.greatsource.cn;SSR_liuyuxia@spoc.greatsource.cn;KSR_chaiyongting@spoc.greatsource.cn;ruilin.wang@dawson.com.cn;huang.x.21@pg.com;lou.l@pg.com;ying.shen@mecoolchina.cn;huiying.zhang@mecoolchina.cn;sicong.ma@mecoolchina.cn;huiru.fan@mecoolchina.cn;ting.gai@mecoolchina.cn;li.j.36@pg.com;ying.jie@maidelong.com;wang.yu.16@pg.com;ST108_Dry_FD_FM.CN@maidelong.com;zhicun.yuan@mecoolchina.cn;yanwei.gao@dawson.com.cn;ksr_jiangfangfang@spoc.greatsource.cn;xu.j.35@pg.com;ST30_Dry_FD_FM.CN@maidelong.com;lou.l@pg.com;liping.chen@dawson.com.cn;bai.w@pg.com;liang.hl@pg.com;chen.vc@pg.com;ST50_Dry_FD_FM.CN@maidelong.com;ST37_Dry_FD_FM.CN@maidelong.com;yangxin@spoc.greatsource.cn;ziwei.jiang@maidelong.com;jin.l.8@pg.com;li.wang@mecoolchina.cn;wei.ws.1@pg.com;jianyun.chen@dawson.com.cn;haiyan.xu@dawson.com.cn;hongquan.lin@dawson.com.cn;zhang.jing@dawson.com.cn;lili@spoc.greatsource.cn;zhaowei@spoc.greatsource.cn;liu.lq.24@pg.com;huo.jh@pg.com;li.x.89@pg.com;huang.s.28@pg.com;tian.xq@pg.com;pan.zi@pg.com;cheng.h.6@pg.com;haiyan.xu@dawson.com.cn;hongquan.lin@dawson.com.cn;haixing.zhang@dawson.com.cn;zhang.hy.7@pg.com;huang.jy@pg.com;liu.y.132@pg.com;guan.gl@pg.com;zhang.da.5@pg.com;METRO-A@pgone.onmicrosoft.com;yang.l.49@pg.com;yang.l.49@pg.com;jin.yu@pg.com;tang.j.4@pg.com;you.sa@pg.com;you.j.6@pg.com;hu.re.1@pg.com;deng.j.9@pg.com</t>
+    <t>chen.ca.16@pg.com;julan.shao@mecoolchina.cn;wang.ti.3@pg.com;shu.chen@dawson.com.cn;qin.lin@dawson.com.cn;li.me.8@pg.com;li.duan@mecoolchina.cn;rsm_liudong@spoc.greatsource.cn;rsm_fuxiaohuan@spoc.greatsource.cn;rsm_zhangshuchen@spoc.greatsource.cn;rsm_wanglei@spoc.greatsource.cn;rsm_shentaiyu@spoc.greatsource.cn;rsm_wuhaitao@spoc.greatsource.cn;rsm_wuhuimin@spoc.greatsource.cn;rsm_maning@spoc.greatsource.cn;you.sa@pg.com;cuihua.zhou@mecoolchina.cn;xian.hua@mecoolchina.cn;jianwei.zhang@mecoolchina.cn;hengwei.sun@mecoolchina.cn;chenjun@dawson.com.cn;qun.tang@mecoolchina.cn;jing.chen5@mecoolchian.cn;feng.w.3@pg.com;shanqi.cui@mecoolchina.cn;lu.y.3@pg.com;wang.x.22@pg.com;dong.s.3@pg.com;zhao.j.16@pg.com;ma.y.2@pg.com;rsm_tengweili@spoc.greatsource.cn;zhao.yu.4@pg.com;zhang.j.51@pg.com;ke.s@pg.com;jue.gu@dawson.com.cn;fei.du@dawson.com.cn;ke.s@pg.com;xu.c.18@pg.com;wang.fr@pg.com;chen.w.36@pg.com;huifen.zhang@mecoolchina.cn;xie.l.6@pg.com;hua.m@pg.com;deng.m.1@pg.com;zhang.q.32@pg.com;chen.s.46@pg.com;zhang.ch.13@pg.com;lan.j@pg.com;du.j.3@pg.com;cao.na@pg.com;wei.ws.1@pg.com;zhang.na.8@pg.com;chen.l.33@pg.com;zhang.xy@pg.com;tan.q@pg.com;dai.r.1@pg.com;wen.y.7@pg.com;chen.y.2@pg.com;rsm_yuxin@spoc.greatsource.cn;wu.h.20@pg.com;zhou.w.13@pg.com;chunyun.li@mecoolchina.cn;jiahua.liu@mecoolchina.cn;yali.rao@mecoolchina.cn;gong.y.1@pg.com;zhen.lz.1@pg.com;guan.gl@pg.com;zhou.ev@pg.com;zhang.z.66@pg.com;yang.l.49@pg.com;wu.p.7@pg.com;zhang.s.54@pg.com;hu.re.1@pg.com;jin.yu@pg.com;hou.z.6@pg.com;tang.j.4@pg.com;you.j.6@pg.com;zhou.ke@pg.com</t>
+  </si>
+  <si>
+    <t>chen.ca.16@pg.com;st219_dryfd_fm@maidelong.com;st61_dryfd_fm@maidelong.com;st198_dry_fd_fm.cn@maidelong.com;ST24_Dry_FD_FM.CN@maidelong.com;st228_dry_fd_fm.cn@maidelong.com;ST56_DRY_FD_FM.CN@maidelong.com;ST225_DRY_FD_FM.CNCN_YueLust225_dry_fd_fm.cn@maidelong.com;ST10_Dry_FD_FM.CN@maidelong.com;st163_dry_fd_fm.cn@maidelong.com;ST11_Dry_FD_FM.CN@maidelong.com;St229_dry_fd_fm.cn@maidelong.com;St216_dry_fd_fm.cn@maidelong.com;St159_dry_fd_fm.cn@maidelong.com;St210_dry_fd_fm.cn@maidelong.com;st173_dry_fd_fm.cn@maidelong.com;st128_dry_fd_fm.cn@maidelong.com;ST12_Dry_FD_FM.CN@maidelong.com;ST13_Dry_FD_FM.CN@maidelong.com;ST14_Dry_FD_FM.CN@maidelong.com;ST15_Dry_FD_FM.CN@maidelong.com;ST179_Dry_FD_FM.CN@maidelong.com;ST56_DRY_FD_FM.CN@maidelong.com;ST17_Dry_FD_FM.CN@maidelong.com;ST18_Dry_FD_FM.CN@maidelong.com;ST27_Dry_FD_FM.CN@maidelong.com;ST38_Dry_FD_FM.CN@maidelong.com;ST40_DRY_FD_FM.CN@maidelong.com;ST41_Dry_FD_FM.CN@maidelong.com;ST42_DRY_FD_FM.CN@maidelong.com;st44_dry_fd_fm.cn@maidelong.com;ST50_Dry_FD_FM.CN@maidelong.com;ST54_DRY_FD_FM.CN@maidelong.com;ST55_Dry_FD_FM.CN@maidelong.com;ST60_DRY_FD_FM.CN@maidelong.com;ST62_Dry_FD_FM.CN@maidelong.com;ST66_Dry_FD_FM.CN@maidelong.com;ST67_DRY_FD_FM.CN@maidelong.com;st68_dry_fd_fm.cn@maidelong.com;ST70_DRY_FD_FM.CN@maidelong.com;ST72_DRY_FD_FM.CN@maidelong.com;ST74_DRY_FD_FM.CN@maidelong.com;ST76_Dry_FD_FM.CN@maidelong.com;st80_dry_fd_fm.cn@maidelong.com;ST105_DRY_FD_FM.CN@maidelong.com;ST130_DRY_FD_FM.CN@maidelong.com;ST139_DRY_FD_FM.CN@maidelong.com;ST141_DRY_FD_FM.CN@maidelong.com;ST164_DRY_FD_FM.CN@maidelong.com;ST22_Dry_FD_FM.CN@maidelong.com;st69_dry_fd_fm.cn@maidelong.com;ST16_Dry_FD_FM.CN@maidelong.com;ST19_Dry_FD_FM.CN@maidelong.com;ST23_Dry_FD_FM.CN@maidelong.com;ST25_Dry_FD_FM.CN@maidelong.com;ST28_Dry_FD_FM.CN@maidelong.com;st29_dry_fd_fm.cn@maidelong.com;ST30_Dry_FD_FM.CN@maidelong.com;ST34_Dry_FD_FM.CN@maidelong.com;ST36_DRY_FD_FM.CN@maidelong.com;st43_dry_fd_fm.cn@maidelong.com;ST47_Dry_FD_FM.CN@maidelong.com;ST51_Dry_FD_FM.CN@maidelong.com;ST53_Dry_FD_FM.CN@maidelong.com;ST57_Dry_FD_FM.CN@maidelong.com;ST61_DRY_FD_FM.CN@maidelong.com;ST63_DRY_FD_FM.CN@maidelong.com;ST78_DRY_FD_FM.CN@maidelong.com;ST132_DRY_FD_FM.CN@maidelong.com;ST134_DRY_FD_FM.CN@maidelong.com;ST144_DRY_FD_FM.CN@maidelong.com;ST149_DRY_FD_FM.CN@maidelong.com;ST158_DRY_FD_FM.CN@maidelong.com;ST162_DRY_FD_FM.CN@maidelong.com;ST168_DRY_FD_FM.CN@maidelong.com;ST20_Dry_FD_FM.CN@maidelong.com;ST21_Dry_FD_FM.CN@maidelong.com;ST26_Dry_FD_FM.CN@maidelong.com;ST31_Dry_FD_FM.CN@maidelong.com;ST33_Dry_FD_FM.CN@maidelong.com;ST35_Dry_FD_FM.CN@maidelong.com;ST37_Dry_FD_FM.CN@maidelong.com;ST39_Dry_FD_FM.CN@maidelong.com;ST46_Dry_FD_FM.CN@maidelong.com;ST56_DRY_FD_FM.CN@maidelong.com;st58_dry_fd_fm.cn@maidelong.com;ST59_DRY_FD_FM.CN@maidelong.com;ST71_DRY_FD_FM.CN@maidelong.com;ST109_DRY_FD_FM.CN@maidelong.com;ST121_DRY_FD_FM.CN@maidelong.com;ST160_DRY_FD_FM.CN@maidelong.com;ST127_DRY_FD_FM.CN@maidelong.com;ST56_DRY_FD_FM.CN@maidelong.com;ST123_DRY_FD_FM.CN@maidelong.com;st127_fom.cn@maidelong.com;ST70_DRY_FD_FM.CN@maidelong.com;ST124_DRY_FD_FM.CN@maidelong.com;st125_dry_fd_fm.cn@maidelong.com;ST191_DRY_FD_FM.CN@maidelong.com;_dry_fd_fm.cn@maidelong.com;fm.cn@maidelong.com;STOCK01.CN@maidelong.com;st219_dryfd_fm@maidelong.com;shuai.zheng@dawson.com.cn;ting.zhang@mecoolchina.cn;xuefei.luo@dawson.com.cn;hong.li@dawson.com.cn;RSM_liguoqiang@spoc.greatsource.cn;li.duan@mecoolchina.cn;fengying.wang@mecoolchina.cn;aihua.cao@mecoolchina.cn;rsm_wangleirsm_wanglei@spoc.greatsource.cn;fei.du@dawson.com.cn;kai.li@mecoolchina.cn;RSM_liuweijie@spoc.greatsource.cn;xiuping.jiang@dawson.com.cn;shirong.yang@mecoolchina.cn;lina.huang@dawson.com.cn;xiaojing.dai@dawson.com.cn;delin.weng@mecoolchina.cn;xuefei.luo@dawson.com.cn;yan.fei@dawson.com.cn;jun.liu@dawson.com.cn;fenglian.wu@dawson.com.cn;KSR_wangli@spoc.greatsource.cn;chunmei.ge@mecoolchina.cn;hong.li@dawson.com.cn;ting.zhang@mecoolchina.cn;na.liu@dawson.com.cn;ying.yan@mecoolchina.cn;KSR_sunzhigang@spoc.greatsource.cn;long.guo@mecoolchina.cn;rong.zhou@mecoolchina.cn;chunyan.lu@mecoolchina.cn;xiaoyan.han@mecoolchina.cn;wang.xingxing@dawson.com.cn;qingbi.peng@mecoolchina.cn;KSR_wangnaying@spoc.greatsource.cn;KSR_kangjianing@spoc.greatsource.cn;xianfei.fang@dawson.com.cn;ran.chen@dawson.com.cn;tingyan.hao@mecoolchina.cn;dongyi.peng@dawson.com.cn;KSR_songxuemei@spoc.greatsource.cn;yingying.xu@mecoolchina.cn;KSR_sunxiaochen@spoc.greatsource.cn;KSR_tianyu@spoc.greatsource.cn;rsm_lijing7066@spoc.greatsource.cn;ISR_dengxibo@spoc.greatsource.cn;wan.yy@pg.com;ST216_Dry_FD_FM.CN@maidelong.com;ST159_Dry_FD_FM.CN@maidelong.com;cai.m.3@pg.com;qijie.wang@mecoolchina.cn;yan.sa@pg.com;gengchun.wang@dawson.com.cn;shanqi.cui@mecoolchina.cn;rsm_jiangbinrsm_jiangbin@spoc.greatsource.cn;rsm_zhouyu@spoc.greatsource.cn;rsm_lijing7066@spoc.greatsource.cn;rsm_tengweili@spoc.greatsource.cn;rsm_pengwei@spoc.greatsource.cn;rsm_wangmingchen@spoc.greatsource.cn;fuyou.luo@dawson.com.cn;sha.wang@mecoolchina.cn;jun.liu@dawson.com.cn;lianghuai.zhang@dawson.com.cn;xiaozheng188@126.com;yanping.fan@dawson.com.cn;jie.shen@dawson.com.cn;KSR_zhangxiaowei@spoc.greatsource.cn;ksr_taoxinxin@spoc.greatsource.cn;SSR_liuyuxia@spoc.greatsource.cn;KSR_chaiyongting@spoc.greatsource.cn;ruilin.wang@dawson.com.cn;huang.x.21@pg.com;lou.l@pg.com;ying.shen@mecoolchina.cn;huiying.zhang@mecoolchina.cn;sicong.ma@mecoolchina.cn;huiru.fan@mecoolchina.cn;ting.gai@mecoolchina.cn;li.j.36@pg.com;ying.jie@maidelong.com;wang.yu.16@pg.com;ST108_Dry_FD_FM.CN@maidelong.com;zhicun.yuan@mecoolchina.cn;yanwei.gao@dawson.com.cn;ksr_jiangfangfang@spoc.greatsource.cn;xu.j.35@pg.com;ST30_Dry_FD_FM.CN@maidelong.com;lou.l@pg.com;liping.chen@dawson.com.cn;bai.w@pg.com;liang.hl@pg.com;chen.vc@pg.com;ST50_Dry_FD_FM.CN@maidelong.com;ST37_Dry_FD_FM.CN@maidelong.com;yangxin@spoc.greatsource.cn;ziwei.jiang@maidelong.com;jin.l.8@pg.com;li.wang@mecoolchina.cn;wei.ws.1@pg.com;jianyun.chen@dawson.com.cn;haiyan.xu@dawson.com.cn;hongquan.lin@dawson.com.cn;zhang.jing@dawson.com.cn;lili@spoc.greatsource.cn;zhaowei@spoc.greatsource.cn;liu.lq.24@pg.com;huo.jh@pg.com;li.x.89@pg.com;huang.s.28@pg.com;tian.xq@pg.com;pan.zi@pg.com;cheng.h.6@pg.com;haiyan.xu@dawson.com.cn;hongquan.lin@dawson.com.cn;haixing.zhang@dawson.com.cn;huang.jy@pg.com;liu.y.132@pg.com;guan.gl@pg.com;zhang.da.5@pg.com;METRO-A@pgone.onmicrosoft.com;yang.l.49@pg.com;yang.l.49@pg.com;jin.yu@pg.com;tang.j.4@pg.com;you.sa@pg.com;you.j.6@pg.com;hu.re.1@pg.com;deng.j.9@pg.com;jin.sj.3@pg.com;jin.sj.3@pg.com</t>
   </si>
   <si>
     <t>zhang.ki@pg.com;li.mx@pg.com;zhang.pe.4@pg.com;xu.m.17@pg.com;gao.za@pg.com;xuan.j.3@pg.com;luo.y.15@pg.com;xie.co@pg.com;zhen.mh@pg.com;chen.ca.16@pg.com;tang.r.2@pg.com;liu.q.22@pg.com;pan.s.2@pg.com;li.g.17@pg.com;zhang.xi.25@pg.com;luo.ya@pg.com;you.j.6@pg.com;wei.m.4@pg.com;zhang.pe.4@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;zhang.bo@pg.com;lin.l.18@pg.com;li.xi.1@pg.com;zhou.ss@pg.com;tian.r.1@pg.com;tang.y.11@pg.com;li.b.22@pg.com;wang.x.102@pg.com;wang.ti@pg.com;liu.xi.23@pg.com;bao.ji.1@pg.com;fu.t.1@pg.com;feng.lm.1@pg.com;zhang.m.12@pg.com;wang.ji.36@pg.com;gao.x.13@pg.com;zhang.r.20@pg.com;cao.na@pg.com;chang.p.3@pg.com;hu.d.2@pg.com;sun.s.2@pg.com;ding.x.4@pg.com;lu.j.37@pg.com;zhou.ke@pg.com;yu.j.9@pg.com;xie.x.13@pg.com;zhang.y.161@pg.com;liu.w.5@pg.com;wang.xm.2@pg.com;zhang.j.129@pg.com;zeng.h@pg.com;huang.j.59@pg.com;lin.d.1@pg.com;yang.si@pg.com;gu.li.3@pg.com;ying.jn@pg.com;hu.hx@pg.com;jhl666@163.com;lv.ki@pg.com;ada_huzhongxiu@126.com;he.x.9@pg.com;yu.q.10@pg.com;qiu.s.4@pg.com;wang.jl.1@pg.com;qiu.ly@pg.com;zhao.yu.4@pg.com;tian.si@pg.com;cheng.rj@pg.com;ni.j.5@pg.com;liu.q.28@pg.com;cheng.ch.6@pg.com;zheng.ch.7@pg.com;yu.q.10@pg.com;chen.r.13@pg.com;sun.y.31@pg.com;zhang.x.77@pg.com;liu.ch.13@pg.com;yin.w.2@pg.com;li.yi.22@pg.com;ma.p@pg.com;xu.ss.1@pg.com;zhou.w.13@pg.com;liu.b.5@pg.com;cai.m.3@pg.com;yu.l.8@pg.com;pg_yuchen@163.com;gu.qi.3@pg.com;chen.cx.65@pg.com;zhang.z.60@pg.com;wang.x.22@pg.com;you.j.6@pg.com;ma.c.4@pg.com;yang.s.36@pg.com;wang.yu.16@pg.com;xu.j.41@pg.com;an.y.2@pg.com;qian.s.5@pg.com;he.q.1@pg.com;zhu.an.2@pg.com</t>
-  </si>
-  <si>
-    <t>chen.ca.16@pg.com;chj198131@163.com;420080675@qq.com;fuyou.luo@dawson.com.cn;peng.yf.3@pg.com;zou.ka@pg.com;congling.chen@dawson.com.cn;rsm_wangzhuo@spoc.greatsource.cn;liu.yi.10@pg.com;jinyongan@spoc.greatsource.cn;qi.shu@mecoolchina.cn;wu.er@pg.com;jiang.a.2@pg.com;shui.sl@pg.com;wangli@spoc.greatsource.cn;wangl@spoc.greatsource.cn;wangli@spoc.greatsource.cn;chen.cx.3@pg.com;xue.vi.1@pg.com;304454459@QQ.com;ma.l.2@pg.com;xu.m.6@pg.com;chen.cx.3@pg.com;lu.ya.2@pg.com;xu.m.6@pg.com;chen.x.62@pg.com;lijing@spoc.greatsource.cn;sun.w@pg.com;wu.x.2@pg.com;hu.ht@pg.com;zhou.j.30@pg.com;zeng.j.9@pg.com;cao.na@pg.com;zhou.w.13@pg.com;chen.xi@pg.com;zou.zf@pg.com;chen.x.62@pg.com;xu.ju.3@pg.com;luo.y.15@pg.com;li.z.34@pg.com;zeng.j.9@pg.com;cao.na@pg.com;zhou.j.30@pg.com;liu.x.35@pg.com;wang.xm.2@pg.com;li.s.26@pg.com;nanning.wang@dawson.com.cn;fengying.wang@mecoolchina.cn;xiaohui.you@dawson.com.cn;zhou.y.42@pg.com;he.q.1@pg.com;zhou.y.42@pg.com;qu.j.2@pg.com;teng.g@pg.com;ksr_tianyu@spoc.greatsource.cn;teng.g@pg.com;qu.j.2@pg.com;juan.chen@mecoolchina.cn;wang.s.34@pg.com;li.m.6@pg.com;zhong.xi.3@pg.com;lv.h@pg.com;jia.b.1@pg.com;li.y.150@pg.com;hua.m@pg.com;luo.fi@pg.com;zfr0917@qq.com;zhang.fr.1@pg.com;rsm_wuhaitao@spoc.greatsource.cn;ksr_chenyanru@spoc.greatsource.cn;zhou.j.30@pg.com;wang.xm.2@pg.com;lu.x.16@pg.com;li.m.6@pg.com;jia.b.1@pg.com;liu.h.47@pg.com;ding.x.4@pg.com;zhao.q.6@pg.com;li.y.150@pg.com;cao.na@pg.com;xu.ju.3@pg.com;dai.r.1@pg.com;wu.p.7@pg.com;lv.h@pg.com;zhang.y.161@pg.com;guan.gl@pg.com;luo.fi@pg.com;qiu.s.4@pg.com;li.y.50@pg.com;hong.xie@mecoolchina.cn;li.duan@mecoolchina.cn;pan.y.6@pg.com;lu.x.16@pg.com;zhang.y.86@pg.com;alice.y@pg.com;Shuqi_3333@163.com;yangyuting1@cmhk.com;xuehua@cmhk.com;liu.lx.1@pg.com;cheng.z.1@pg.com;zhi.sa.2@pg.com;xing.ky.1@pg.com;Jia.b.1@pg.com;li.xi.1@pg.com;yang.y.40@pg.com;dai.r.1@pg.com;you.j.6@pg.com;guo.x.5@pg.com;dong.ji@pg.com</t>
+    <t>chen.ca.16@pg.com;zhang.bo@pg.com;lin.l.18@pg.com;li.xi.1@pg.com;zhou.ss@pg.com;tian.r.1@pg.com;tang.y.11@pg.com;li.b.22@pg.com;wang.x.102@pg.com;wang.ti@pg.com;liu.xi.23@pg.com;bao.ji.1@pg.com;fu.t.1@pg.com;feng.lm.1@pg.com;zhang.m.12@pg.com;wang.ji.36@pg.com;gao.x.13@pg.com;zhang.r.20@pg.com;cao.na@pg.com;chang.p.3@pg.com;sun.s.2@pg.com;ding.x.4@pg.com;lu.j.37@pg.com;zhou.ke@pg.com;yu.j.9@pg.com;xie.x.13@pg.com;zhang.y.161@pg.com;liu.w.5@pg.com;wang.xm.2@pg.com;zhang.j.129@pg.com;zeng.h@pg.com;huang.j.59@pg.com;lin.d.1@pg.com;yang.si@pg.com;gu.li.3@pg.com;ying.jn@pg.com;hu.hx@pg.com;jhl666@163.com;lv.ki@pg.com;ada_huzhongxiu@126.com;he.x.9@pg.com;yu.q.10@pg.com;qiu.s.4@pg.com;wang.jl.1@pg.com;qiu.ly@pg.com;zhao.yu.4@pg.com;tian.si@pg.com;cheng.rj@pg.com;ni.j.5@pg.com;liu.q.28@pg.com;cheng.ch.6@pg.com;zheng.ch.7@pg.com;yu.q.10@pg.com;chen.r.13@pg.com;sun.y.31@pg.com;zhang.x.77@pg.com;liu.ch.13@pg.com;yin.w.2@pg.com;li.yi.22@pg.com;ma.p@pg.com;xu.ss.1@pg.com;zhou.w.13@pg.com;liu.b.5@pg.com;cai.m.3@pg.com;yu.l.8@pg.com;pg_yuchen@163.com;chen.cx.65@pg.com;zhang.z.60@pg.com;wang.x.22@pg.com;you.j.6@pg.com;ma.c.4@pg.com;yang.s.36@pg.com;wang.yu.16@pg.com;xu.j.41@pg.com;an.y.2@pg.com;qian.s.5@pg.com;he.q.1@pg.com;zhu.an.2@pg.com;yu.j.5@pg.com</t>
+  </si>
+  <si>
+    <t>chen.ca.16@pg.com;chj198131@163.com;420080675@qq.com;fuyou.luo@dawson.com.cn;peng.yf.3@pg.com;zou.ka@pg.com;congling.chen@dawson.com.cn;rsm_wangzhuo@spoc.greatsource.cn;liu.yi.10@pg.com;jinyongan@spoc.greatsource.cn;qi.shu@mecoolchina.cn;wu.er@pg.com;jiang.a.2@pg.com;shui.sl@pg.com;wangli@spoc.greatsource.cn;wangl@spoc.greatsource.cn;wangli@spoc.greatsource.cn;chen.cx.3@pg.com;xue.vi.1@pg.com;304454459@QQ.com;ma.l.2@pg.com;xu.m.6@pg.com;chen.cx.3@pg.com;lu.ya.2@pg.com;xu.m.6@pg.com;chen.x.62@pg.com;lijing@spoc.greatsource.cn;sun.w@pg.com;wu.x.2@pg.com;hu.ht@pg.com;zhou.j.30@pg.com;zeng.j.9@pg.com;cao.na@pg.com;zhou.w.13@pg.com;chen.xi@pg.com;zou.zf@pg.com;chen.x.62@pg.com;xu.ju.3@pg.com;luo.y.15@pg.com;li.z.34@pg.com;zeng.j.9@pg.com;cao.na@pg.com;zhou.j.30@pg.com;liu.x.35@pg.com;wang.xm.2@pg.com;li.s.26@pg.com;nanning.wang@dawson.com.cn;fengying.wang@mecoolchina.cn;xiaohui.you@dawson.com.cn;zhou.y.42@pg.com;he.q.1@pg.com;zhou.y.42@pg.com;qu.j.2@pg.com;teng.g@pg.com;ksr_tianyu@spoc.greatsource.cn;teng.g@pg.com;qu.j.2@pg.com;juan.chen@mecoolchina.cn;wang.s.34@pg.com;li.m.6@pg.com;zhong.xi.3@pg.com;lv.h@pg.com;jia.b.1@pg.com;li.y.150@pg.com;hua.m@pg.com;luo.fi@pg.com;zfr0917@qq.com;zhang.fr.1@pg.com;rsm_wuhaitao@spoc.greatsource.cn;ksr_chenyanru@spoc.greatsource.cn;zhou.j.30@pg.com;wang.xm.2@pg.com;lu.x.16@pg.com;jia.b.1@pg.com;liu.h.47@pg.com;ding.x.4@pg.com;zhao.q.6@pg.com;li.y.150@pg.com;cao.na@pg.com;xu.ju.3@pg.com;dai.r.1@pg.com;wu.p.7@pg.com;lv.h@pg.com;zhang.y.161@pg.com;guan.gl@pg.com;luo.fi@pg.com;qiu.s.4@pg.com;li.y.50@pg.com;hong.xie@mecoolchina.cn;li.duan@mecoolchina.cn;pan.y.6@pg.com;lu.x.16@pg.com;zhang.y.86@pg.com;alice.y@pg.com;Shuqi_3333@163.com;yangyuting1@cmhk.com;xuehua@cmhk.com;liu.lx.1@pg.com;cheng.z.1@pg.com;zhi.sa.2@pg.com;xing.ky.1@pg.com;Jia.b.1@pg.com;li.xi.1@pg.com;yang.y.40@pg.com;dai.r.1@pg.com;you.j.6@pg.com;guo.x.5@pg.com;dong.ji@pg.com</t>
   </si>
   <si>
     <t>chen.ca.16@pg.com;hu.re.1@pg.com;huang.ap@pg.com;huo.kk@pg.com;wang.s.45@pg.com;ma.l@pg.com;chow.st@pg.com;luo.ya@pg.com;liu.wa.1@pg.com;Su.d@pg.com;zhang.zq.27@pg.com;xu.tw@pg.com;guan.gl@pg.com;you.j.6@pg.com</t>
@@ -793,22 +799,22 @@
     <t>chen.ca.16@pg.com;sheng.w@pg.com;song.q@pg.com;wang.co.1@pg.com;yuan.y.4@pg.com;zhang.zy.1@pg.com;liu.h.22@pg.com;shi.ws@pg.com;li.lf.19@pg.com;wei.m.4@pg.com;you.j.6@pg.com;han.mo@pg.com;zhang.su@pg.com;shili1@cmhk.com;liupengying@cmhk.com;xuehua@cmhk.com;guo.yu.3@pg.com;tao.y.3@pg.com;xie.co@pg.com;xu.ka@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;sun.al@pg.com;song.q@pg.com;xu.ka@pg.com;zhang.su@pg.com;rsm_houying@spoc.greatsource.cn;ksr_wangfangfang@spoc.greatsource.cn;chai.cf@pg.com;505772113@qq.com;dengxiuna_nana@163.com;603320863@qq.com;RSM_fandejun@spoc.greatsource.cn;ksr_wangyanli@spoc.greatsource.cn;isr_wanglijie@spoc.greatsource.cn;snow_mary@126.com;whmin33@aliyun.com;fen-7800@163.com;18304961305@163.com;wei.wei@mecoolchina.cn;jiayan.feng@dawson.com.cn;lu.feng@mecoolchina.cn;wangjing@dawson.com.cn;zhangcuimei1978@126.com;ksr_zhangcuimeiksr_zhangcuimei@spoc.greatsource.cn;isr_liuyang@spoc.greatsource.cn;13630852139@163.com;ksr_liuweina@spoc.greatsource.cn;ksr_maxiongzhuang@spoc.greatsource.cn;13517812233@126.com;1982728wenjuan@163.com;1714716052@qq.com;6433647@qq.com;cdjd_tdm@163.com;568477699@qq.com;zunyitsor@126.com;rong.shu@mecoolchina.cn;xingzong.hu@mecoolchina.cn;dezhen.yang@mecoolchina.cn;maomei.tian@mecoolchina.cn;ray_0810@163.com;fhr_xx@163.com;yatao.sheng@mecoolchina.cn;yanxia.duan@mecoolchina.cn;bjhlwestyc@163.com;qianqian.lan@mecoolchina.cn;kai.li@mecoolchina.cn;weiyi1129@163.com;yangzr201211@163.com;Lindalindazhang0817@163.com;qpmot@126.com;guo.yu.3@pg.com;feng.ji@dawson.com.cn;刘玉琼yuqiong.liu@mecoolchina.cn;yuanyuan.wang@mecoolchina.cn;yuanyuan.wang@mecoolchina.cn;yuankun.shan@dawson.com.cn;conghua.zhao@dawson.com.cn;wang.ji.36@pg.com;wang.l.13@pg.com;wang.hp.1@pg.com;ksr_wangyanli@spoc.greatsource.cn;huang.s.18@pg.com;sun.su.7@pg.com;huyuxin@spoc.greatsource.cn;li.y.87@pg.com;zhong.s.7@pg.com;liu.lq.24@pg.com;li.x.89@pg.com;yi.x.2@pg.com;na.zhu@mecoolchina.cn;guan.gl@pg.com;ma.y.2@pg.com;liu.h.47@pg.com;zhang.bo@pg.com;wang.yu.17@pg.com;wangjianfeng@spoc.greatsource.cn;94732391@qq.com;huiru.fan@mecoolchina.cn;lan.li@mecoolchina.cn;juan.ma@mecoolchina.cn;you.j.6@pg.com;wang.hp.1@pg.com</t>
-  </si>
-  <si>
-    <t>chen.ca.16@pg.com;zhang.ki@pg.com;zeng.lm@pg.com;deng.b.2@pg.com;qu.z.1@pg.com;xiao.f@pg.com;guo.x.2@pg.com;wu.ma.3@pg.com;lu.jy.3@pg.com;liu.lq.24@pg.com;liang.ya@pg.com;qu.z.1@pg.com;guan.gl@pg.com;xie.co@pg.com;sun.h.2@pg.com;tang.r.2@pg.com;li.w.22@pg.com;pan.s.2@pg.com;pan.q.1@pg.com;li.g.17@pg.com;luo.ya@pg.com;you.j.6@pg.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chen.ca.16@pg.com;huang.zh.4@pg.com;pan.y.6@pg.com;drx20050402@163.com;2765959632@qq.com;lilei@dawson.com.cn;18767163486@163.com;zhu.h.2@pg.com;zhou.y.25@pg.com;zhou.rl@pg.com;zhongshaocong@cmhk.com;zheng.je.1@pg.com;zhangbinpg@126.com;zhang.y.108@pg.com;zhang.x.58@pg.com;zhang.n.8@pg.com;zhang.jr@pg.com;zhang.h.26@pg.com;zhai.ta@pg.com;yyww201009@163.com;yuling_01@126.com;yuki_jin2002@163.com;yueming.xiong@dawson.com.cn;yu.f.8@pg.com;yong.you@dawson.com.cn;yiqing.chen@dawson.com.cn;yaya000525@163.com;yang.y.40@pg.com;yan.y.3@pg.com;xu.2@pg.com;xu.qy@pg.com;tongxinbei@163.com;xiaomin.liang@dawson.com.cn;xiaomei.yu@dawson.com.cn;xiao.sh.3@pg.com;wwj01224@163.com;wufen502@163.com;wu.z.6@pg.com;zhang.z.66@pg.com;wu.gr.1@pg.com;wu.bo.4@pg.com;wlxtwh@crvanguard.com.cn;wengyan.bj@126.com;wei.ws.1@pg.com;wang.wj.2@pg.com;wang.ji.36@pg.com;wang.d.23@pg.com;twtwxfgmy@sina.com;tsorsyzz@163.com;tsmalina@163.com;tong.yi@pg.com;tjyskf@sinotrans.com;ting.zhao@mecoolchina.cn;tayoi_wq@163.com;tang.yu.1@pg.com;tang.su.1@pg.com;sytsmgq@163.com;sunjing-l@163.com;sun.wi@pg.com;sophia__xue@163.com;shen.y.4@pg.com;shaohua.kang@dawson.com.cn;shao.al@pg.com;ruan.rz@pg.com;pt20117@126.com;pt_2009@live.cn;pgcrv@powere2e.cn;peng.z.9@pg.com;panliyun66@163.com;pan.k@pg.com;ma.ph@pg.com;lvping2005@163.com;luo.ri@pg.com;luo.c@pg.com;lu.qi.3@pg.com;lixinyun_126@163.com;liu.r.20@pg.com;liu.j.27@pg.com;ling.ji@126.com;lin.ly.12@pg.com;liao.j.1@pg.com;li.duan@mecoolchina.cn;li.y.50@pg.com;li.r.21@pg.com;li.ji.20@pg.com;li.j.45@pg.com;kkfusr555@163.com;kaodou@126.com;juan.chen@mecoolchina.cn;jin.l@pg.com;jin.c.4@pg.com;jiangang.wu@mecoolchina.cn;jiang.l.3@pg.com;huitong1974@163.com;2148211659@qq.com;huang.ji.12@pg.com;huang.h.19@pg.com;ch.11@pg.com;hanxu.2@pg.com;guosky_001@163.com;guan.gl@pg.com;fv_77@126.com;friedaji@163.com;fang.a.1@pg.com;fan.li@pg.com;du.y.10@pg.com;dingqian_77@126.com;ding.je@pg.com;ddhmtsm@163.com;cwg1161864608@163.com;cherry_711@126.com;cao.t.2@pg.com;bowicegao@126.com;bao.l@pg.com;awawaw2002@163.com;459085879@qq.com;2765959632@qq.com;237056991@qq.com;1650811332@qq.com;chen.wi.6@pg.com;pan.y.6@pg.com;wwj051224@163.com;ke.s@pg.com;xu.le.3@pg.com;chen.x.81@pg.com;huang.sh.8@pg.com;sui.x@pg.com;zhou.b.5@pg.com;zhong.x.7@pg.com;zhang.y.176@pg.com;ye.yl.1@pg.com;zhou.ev@pg.com;qin.j.6@pg.com;you.j.6@pg.com;abuduxukeer.a@pg.com;cheng.y.16@pg.com;liang.x.7@pg.com;jiang.z.8@pg.com </t>
-  </si>
-  <si>
-    <t>han.mo@pg.com;chen.ca.16@pg.com;hu.re.1@pg.com;tao.y.3@pg.com;hu.ji.7@pg.com;hu.x.6@pg.com;lin.ga.1@pg.com;yao.l.8@pg.com;guo.yu.3@pg.com;wang.w.20@pg.com;tan.z.8@pg.com;yang.y.71@pg.com;yuan.y.4@pg.com;jiang.ti@pg.com;you.j.6@pg.com;yang.w.11@pg.com;sun.w@pg.com;wang.l.13@pg.com;zhong.y.5@pg.com</t>
+    <t>chen.ca.16@pg.com;rsm_houying@spoc.greatsource.cn;ksr_wangfangfang@spoc.greatsource.cn;chai.cf@pg.com;505772113@qq.com;dengxiuna_nana@163.com;603320863@qq.com;RSM_fandejun@spoc.greatsource.cn;ksr_wangyanli@spoc.greatsource.cn;isr_wanglijie@spoc.greatsource.cn;snow_mary@126.com;whmin33@aliyun.com;fen-7800@163.com;18304961305@163.com;wei.wei@mecoolchina.cn;jiayan.feng@dawson.com.cn;lu.feng@mecoolchina.cn;wangjing@dawson.com.cn;zhangcuimei1978@126.com;ksr_zhangcuimeiksr_zhangcuimei@spoc.greatsource.cn;isr_liuyang@spoc.greatsource.cn;13630852139@163.com;ksr_liuweina@spoc.greatsource.cn;ksr_maxiongzhuang@spoc.greatsource.cn;13517812233@126.com;1982728wenjuan@163.com;1714716052@qq.com;6433647@qq.com;cdjd_tdm@163.com;568477699@qq.com;zunyitsor@126.com;rong.shu@mecoolchina.cn;xingzong.hu@mecoolchina.cn;dezhen.yang@mecoolchina.cn;maomei.tian@mecoolchina.cn;ray_0810@163.com;fhr_xx@163.com;yatao.sheng@mecoolchina.cn;yanxia.duan@mecoolchina.cn;bjhlwestyc@163.com;qianqian.lan@mecoolchina.cn;kai.li@mecoolchina.cn;weiyi1129@163.com;yangzr201211@163.com;Lindalindazhang0817@163.com;qpmot@126.com;guo.yu.3@pg.com;feng.ji@dawson.com.cn;刘玉琼yuqiong.liu@mecoolchina.cn;yuanyuan.wang@mecoolchina.cn;yuanyuan.wang@mecoolchina.cn;yuankun.shan@dawson.com.cn;conghua.zhao@dawson.com.cn;wang.hp.1@pg.com;ksr_wangyanli@spoc.greatsource.cn;huang.s.18@pg.com;sun.su.7@pg.com;huyuxin@spoc.greatsource.cn;li.y.87@pg.com;zhong.s.7@pg.com;liu.lq.24@pg.com;li.x.89@pg.com;yi.x.2@pg.com;na.zhu@mecoolchina.cn;guan.gl@pg.com;ma.y.2@pg.com;liu.h.47@pg.com;zhang.bo@pg.com;wang.yu.17@pg.com;wangjianfeng@spoc.greatsource.cn;94732391@qq.com;huiru.fan@mecoolchina.cn;lan.li@mecoolchina.cn;juan.ma@mecoolchina.cn;you.j.6@pg.com;wang.hp.1@pg.com;yuan.y.4@pg.com;tao.y.3@pg.com</t>
+  </si>
+  <si>
+    <t>chen.ca.16@pg.com;zhang.ki@pg.com;zeng.lm@pg.com;deng.b.2@pg.com;qu.z.1@pg.com;guo.x.2@pg.com;wu.ma.3@pg.com;lu.jy.3@pg.com;liang.ya@pg.com;qu.z.1@pg.com;guan.gl@pg.com;xie.co@pg.com;sun.h.2@pg.com;tang.r.2@pg.com;pan.s.2@pg.com;li.g.17@pg.com;luo.ya@pg.com;you.j.6@pg.com;wang.y.120@pg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chen.ca.16@pg.com;huang.zh.4@pg.com;pan.y.6@pg.com;drx20050402@163.com;2765959632@qq.com;lilei@dawson.com.cn;18767163486@163.com;zhu.h.2@pg.com;zhou.y.25@pg.com;zhou.rl@pg.com;zhongshaocong@cmhk.com;zheng.je.1@pg.com;zhangbinpg@126.com;zhang.y.108@pg.com;zhang.x.58@pg.com;zhang.n.8@pg.com;zhang.jr@pg.com;zhang.h.26@pg.com;zhai.ta@pg.com;yyww201009@163.com;yuling_01@126.com;yuki_jin2002@163.com;yueming.xiong@dawson.com.cn;yu.f.8@pg.com;yong.you@dawson.com.cn;yiqing.chen@dawson.com.cn;yaya000525@163.com;yan.y.3@pg.com;xu.2@pg.com;xu.qy@pg.com;tongxinbei@163.com;xiaomin.liang@dawson.com.cn;xiaomei.yu@dawson.com.cn;xiao.sh.3@pg.com;wwj01224@163.com;wufen502@163.com;wu.z.6@pg.com;zhang.z.66@pg.com;wu.gr.1@pg.com;wu.bo.4@pg.com;wlxtwh@crvanguard.com.cn;wengyan.bj@126.com;wei.ws.1@pg.com;wang.wj.2@pg.com;wang.ji.36@pg.com;wang.d.23@pg.com;twtwxfgmy@sina.com;tsorsyzz@163.com;tsmalina@163.com;tong.yi@pg.com;tjyskf@sinotrans.com;ting.zhao@mecoolchina.cn;tayoi_wq@163.com;tang.yu.1@pg.com;tang.su.1@pg.com;sytsmgq@163.com;sunjing-l@163.com;sun.wi@pg.com;sophia__xue@163.com;shen.y.4@pg.com;shaohua.kang@dawson.com.cn;shao.al@pg.com;ruan.rz@pg.com;pt20117@126.com;pt_2009@live.cn;pgcrv@powere2e.cn;peng.z.9@pg.com;panliyun66@163.com;pan.k@pg.com;ma.ph@pg.com;lvping2005@163.com;luo.ri@pg.com;luo.c@pg.com;lu.qi.3@pg.com;lixinyun_126@163.com;liu.r.20@pg.com;liu.j.27@pg.com;ling.ji@126.com;lin.ly.12@pg.com;liao.j.1@pg.com;li.duan@mecoolchina.cn;li.y.50@pg.com;li.r.21@pg.com;li.ji.20@pg.com;li.j.45@pg.com;kkfusr555@163.com;kaodou@126.com;juan.chen@mecoolchina.cn;jin.l@pg.com;jin.c.4@pg.com;jiangang.wu@mecoolchina.cn;jiang.l.3@pg.com;huitong1974@163.com;2148211659@qq.com;huang.ji.12@pg.com;huang.h.19@pg.com;ch.11@pg.com;hanxu.2@pg.com;guosky_001@163.com;guan.gl@pg.com;fv_77@126.com;friedaji@163.com;fang.a.1@pg.com;fan.li@pg.com;du.y.10@pg.com;dingqian_77@126.com;ding.je@pg.com;ddhmtsm@163.com;cwg1161864608@163.com;cherry_711@126.com;cao.t.2@pg.com;bowicegao@126.com;bao.l@pg.com;awawaw2002@163.com;459085879@qq.com;2765959632@qq.com;237056991@qq.com;1650811332@qq.com;chen.wi.6@pg.com;pan.y.6@pg.com;wwj051224@163.com;ke.s@pg.com;xu.le.3@pg.com;chen.x.81@pg.com;huang.sh.8@pg.com;sui.x@pg.com;zhou.b.5@pg.com;zhong.x.7@pg.com;zhang.y.176@pg.com;ye.yl.1@pg.com;zhou.ev@pg.com;qin.j.6@pg.com;you.j.6@pg.com;abuduxukeer.a@pg.com;cheng.y.16@pg.com;liang.x.7@pg.com;jiang.z.8@pg.com </t>
+  </si>
+  <si>
+    <t>han.mo@pg.com;chen.ca.16@pg.com;hu.re.1@pg.com;tao.y.3@pg.com;hu.ji.7@pg.com;hu.x.6@pg.com;lin.ga.1@pg.com;guo.yu.3@pg.com;wang.w.20@pg.com;tan.z.8@pg.com;yang.y.71@pg.com;yuan.y.4@pg.com;jiang.ti@pg.com;you.j.6@pg.com;yang.w.11@pg.com;sun.w@pg.com;wang.l.13@pg.com;zhong.y.5@pg.com</t>
   </si>
   <si>
     <t>chen.ca.16@pg.com;liu.j.66@pg.com;zhang.je.6@pg.com;zhang.x.65@pg.com;he.j.11@pg.com;ou.sf@pg.com;zhang.k.8@pg.com;zhao.junfeng@ys-yj.com;zhang.jian.ol@ys-yj.com;wang.chang@ys-yj.com;bai.w@pg.com;wang.zishu@ys-yj.com;you.j.6@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;huang.zh.4@pg.com;mufangqin0101@126.com;7577218@qq.com;yqc581@126.com;jiang.ti@pg.com;yuan.hu@pg.com;li.z.29@pg.com;yang.qh.1@pg.com;xu.l.3@pg.com;feng.y.11@pg.com;chen.c.33@pg.com;xie.j.1@pg.com;guo.yu.3@pg.com;tan.z.8@pg.com;chen.l.33@pg.com;hu.y.6@pg.com;zeng.ji.4@pg.com;qin.ji@pg.com;zhang.na.8@pg.com;you.j.6@pg.com</t>
+    <t>chen.ca.16@pg.com;huang.zh.4@pg.com;mufangqin0101@126.com;7577218@qq.com;yqc581@126.com;jiang.ti@pg.com;yuan.hu@pg.com;li.z.29@pg.com;yang.qh.1@pg.com;xu.l.3@pg.com;feng.y.11@pg.com;chen.c.33@pg.com;xie.j.1@pg.com;guo.yu.3@pg.com;tan.z.8@pg.com;hu.y.6@pg.com;zeng.ji.4@pg.com;qin.ji@pg.com;zhang.na.8@pg.com;you.j.6@pg.com</t>
   </si>
   <si>
     <t>tao.y.3@pg.com;guo.yu.3@pg.com;yuan.y.4@pg.com;wang.w.20@pg.com;chen.ca.16@pg.com;wei.m.4@pg.com;you.j.6@pg.com;yang.w.11@pg.com</t>
@@ -832,7 +838,10 @@
     <t>wei.z.6@pg.com;ma.pe@pg.com;xiao.x.7@pg.com;wang.wj.3@pg.com;li.y.106@pg.com;zhang.s.23@pg.com;duan.y.2@pg.com;liu.ll.4@pg.com;wang.x.45@pg.com;li.j.60@pg.com;zhang.z.68@pg.com;li.r.35@pg.com;guo.f.6@pg.com;liu.w.27@pg.com;chen.ca.16@pg.com;you.j.6@pg.com;li.x.104@pg.com;chen.w.14@pg.com</t>
   </si>
   <si>
-    <t>chen.ca.16@pg.com;ou.sf@pg.com;zhang.k.8@pg.com;you.j.6@pg.com;rong.an@pg.com;he.j.11@pg.com;xu.l.19@pg.com</t>
+    <t>chen.ca.16@pg.com;ou.sf@pg.com;zhang.k.8@pg.com;you.j.6@pg.com;rong.an@pg.com;he.j.11@pg.com;xu.l.19@pg.com;liang.r.3@pg.com;zhou.y.53@pg.com</t>
+  </si>
+  <si>
+    <t>sun.j.5@pg.com;qian.yd@pg.com;wang.hu.7@pg.com;chen.ca.16@pg.com;jin.he@pg.com;liu.b.22@pg.com;liu.ll.4@pg.com;zheng.me@pg.com;xu.l.24@pg.com;qing.z.1@pg.com;wang.hu.7@pg.com;guo.j.16@pg.com;he.y.27@pg.com;cheng.c.15@pg.com;wang.j.126@pg.com;zheng.y.29@pg.com;you.j.6@pg.com;wang.y.202@pg.com;song.m.1@pg.com;liang.r.3@pg.com;chen.by.1@pg.com;</t>
   </si>
 </sst>
 </file>
@@ -1717,8 +1726,8 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2023,22 +2032,24 @@
         <v>30</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="33"/>
       <c r="J11" s="43"/>
       <c r="K11" s="28"/>
     </row>
@@ -2419,7 +2430,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="43"/>
       <c r="K25" s="28" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15">
@@ -2427,22 +2438,22 @@
         <v>2</v>
       </c>
       <c r="B26" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>65</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
@@ -2454,22 +2465,22 @@
         <v>2</v>
       </c>
       <c r="B27" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>67</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="35"/>
       <c r="I27" s="33"/>
@@ -2481,22 +2492,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="33"/>
@@ -2508,22 +2519,22 @@
         <v>1</v>
       </c>
       <c r="B29" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>72</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
@@ -2535,22 +2546,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="40" t="s">
-        <v>76</v>
-      </c>
       <c r="G30" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="40"/>
       <c r="I30" s="33"/>
@@ -2562,22 +2573,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="33"/>
@@ -2589,22 +2600,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="35" t="s">
-        <v>81</v>
-      </c>
       <c r="G32" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="35"/>
       <c r="I32" s="33"/>
@@ -2616,22 +2627,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>83</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="G33" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -2643,24 +2654,25 @@
         <v>2</v>
       </c>
       <c r="B34" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="43"/>
       <c r="K34" s="28"/>
     </row>
@@ -2669,22 +2681,22 @@
         <v>3</v>
       </c>
       <c r="B35" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>90</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>93</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -2696,27 +2708,25 @@
         <v>1</v>
       </c>
       <c r="B36" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>95</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="33" t="s">
-        <v>63</v>
-      </c>
+      <c r="I36" s="33"/>
       <c r="J36" s="43"/>
       <c r="K36" s="28"/>
     </row>
@@ -2725,22 +2735,22 @@
         <v>1</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2752,22 +2762,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>97</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>98</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="33"/>
@@ -2779,22 +2789,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>99</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>100</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="33"/>
@@ -2806,22 +2816,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>101</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>102</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="33"/>
@@ -2833,22 +2843,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>104</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="33"/>
@@ -2860,22 +2870,22 @@
         <v>2</v>
       </c>
       <c r="B42" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H42" s="34"/>
       <c r="I42" s="33"/>
@@ -2887,22 +2897,22 @@
         <v>2</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="33"/>
@@ -2914,22 +2924,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>109</v>
       </c>
       <c r="D44" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="33"/>
@@ -2941,22 +2951,22 @@
         <v>2</v>
       </c>
       <c r="B45" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="34" t="s">
         <v>110</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="33"/>
@@ -2968,22 +2978,22 @@
         <v>1</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="33"/>
@@ -2995,22 +3005,22 @@
         <v>1</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="57" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="33"/>
@@ -3022,36 +3032,58 @@
         <v>2</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="57" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G48" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="33"/>
       <c r="J48" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.25">
+      <c r="A49" s="28">
+        <v>1</v>
+      </c>
+      <c r="B49" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="34"/>
-    </row>
-    <row r="49" spans="9:9" ht="14.25">
+      <c r="C49" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="34"/>
       <c r="I49" s="33"/>
-    </row>
-    <row r="52" spans="9:9" ht="14.25">
-      <c r="I52" s="33"/>
-    </row>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+    </row>
+    <row r="52" spans="1:11" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,7 +3101,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3094,42 +3126,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3153,22 +3185,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3195,184 +3227,184 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.75">
       <c r="A10" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3400,23 +3432,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -3424,7 +3456,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -3432,7 +3464,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
@@ -3440,31 +3472,31 @@
         <v>27</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
@@ -3472,15 +3504,15 @@
         <v>29</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="21" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
@@ -3488,7 +3520,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
@@ -3496,7 +3528,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
@@ -3504,31 +3536,31 @@
         <v>23</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
@@ -3536,7 +3568,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
@@ -3544,7 +3576,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -3552,15 +3584,15 @@
         <v>36</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
@@ -3568,7 +3600,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
@@ -3576,7 +3608,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
@@ -3584,15 +3616,15 @@
         <v>40</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
@@ -3600,7 +3632,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25">
@@ -3608,15 +3640,15 @@
         <v>44</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3624,15 +3656,15 @@
         <v>48</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3640,31 +3672,31 @@
         <v>49</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
@@ -3672,7 +3704,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
@@ -3680,23 +3712,23 @@
         <v>55</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
@@ -3704,7 +3736,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3712,39 +3744,39 @@
         <v>60</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
@@ -3752,95 +3784,95 @@
         <v>15</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="59" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3872,23 +3904,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -3896,7 +3928,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -3904,7 +3936,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
@@ -3912,31 +3944,31 @@
         <v>27</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
@@ -3944,15 +3976,15 @@
         <v>29</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="21" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
@@ -3960,7 +3992,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
@@ -3968,7 +4000,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
@@ -3976,31 +4008,31 @@
         <v>23</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
@@ -4008,7 +4040,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
@@ -4016,7 +4048,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -4024,15 +4056,15 @@
         <v>36</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
@@ -4040,7 +4072,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
@@ -4048,7 +4080,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
@@ -4056,15 +4088,15 @@
         <v>40</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
@@ -4072,7 +4104,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25">
@@ -4080,15 +4112,15 @@
         <v>44</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4096,15 +4128,15 @@
         <v>48</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4112,31 +4144,31 @@
         <v>49</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
@@ -4144,7 +4176,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
@@ -4152,23 +4184,23 @@
         <v>55</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
@@ -4176,7 +4208,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4184,39 +4216,39 @@
         <v>60</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
@@ -4224,95 +4256,95 @@
         <v>15</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="59" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4329,7 +4361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BCBF6B-0EFA-4ED9-BB17-FA5A1A92C196}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4344,23 +4376,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -4368,7 +4400,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -4376,7 +4408,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
@@ -4384,31 +4416,31 @@
         <v>27</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
@@ -4416,15 +4448,15 @@
         <v>29</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="21" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
@@ -4432,7 +4464,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
@@ -4440,7 +4472,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
@@ -4448,31 +4480,31 @@
         <v>23</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
@@ -4480,7 +4512,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
@@ -4488,7 +4520,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -4496,15 +4528,15 @@
         <v>36</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
@@ -4512,7 +4544,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
@@ -4520,7 +4552,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
@@ -4528,15 +4560,15 @@
         <v>40</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
@@ -4544,7 +4576,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25">
@@ -4552,15 +4584,15 @@
         <v>44</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4568,7 +4600,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4576,15 +4608,15 @@
         <v>49</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -4592,7 +4624,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
@@ -4600,23 +4632,23 @@
         <v>55</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
@@ -4624,7 +4656,7 @@
         <v>58</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4632,39 +4664,39 @@
         <v>60</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
@@ -4672,7 +4704,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
@@ -4680,71 +4712,71 @@
         <v>52</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
       <c r="A50" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
@@ -4796,10 +4828,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EA642D-0923-40CB-9E5F-92D4AEE51791}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="13.5"/>
@@ -4813,23 +4845,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="74.25">
       <c r="A3" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -4837,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -4845,7 +4877,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="66">
@@ -4853,31 +4885,31 @@
         <v>27</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="163.5">
       <c r="A7" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="46.5">
       <c r="A8" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="247.5">
       <c r="A9" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="49.5">
@@ -4885,15 +4917,15 @@
         <v>29</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="82.5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>209</v>
+      <c r="B11" s="32" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
@@ -4901,7 +4933,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
@@ -4909,7 +4941,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="49.5">
@@ -4917,31 +4949,31 @@
         <v>23</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25">
       <c r="A15" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="99">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="115.5">
       <c r="A16" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="41.25">
       <c r="A17" s="21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
@@ -4949,7 +4981,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="54.75">
@@ -4957,7 +4989,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
@@ -4965,23 +4997,23 @@
         <v>36</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.25">
       <c r="A21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="92.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="118.5">
       <c r="A22" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="66">
@@ -4989,7 +5021,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="103.5">
@@ -4997,15 +5029,15 @@
         <v>40</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="49.5">
@@ -5013,7 +5045,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29.25">
@@ -5021,23 +5053,23 @@
         <v>44</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="148.5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="152.25">
       <c r="A28" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="409.5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6">
       <c r="A29" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29.25">
@@ -5045,23 +5077,23 @@
         <v>49</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="134.25">
       <c r="A31" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="214.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="198">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="24">
@@ -5069,23 +5101,23 @@
         <v>55</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="74.25">
       <c r="A34" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="49.5">
       <c r="A35" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60">
@@ -5093,7 +5125,7 @@
         <v>58</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
@@ -5101,39 +5133,39 @@
         <v>60</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="199.5">
       <c r="A38" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29.25">
       <c r="A39" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="264">
       <c r="A40" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="29.25">
       <c r="A41" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="24">
@@ -5141,79 +5173,87 @@
         <v>15</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="35.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
       <c r="A43" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="24">
       <c r="A45" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="24">
       <c r="A46" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="66">
       <c r="A47" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
       <c r="A48" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="29.25">
       <c r="A49" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="29.25">
       <c r="A50" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>114</v>
-      </c>
       <c r="B51" s="46" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="51" customHeight="1">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5250,13 +5290,29 @@
     <hyperlink ref="B50" r:id="rId30" display="wei.z.6@pg.com;ma.pe@pg.com;xiao.x.7@pg.com;wang.wj.3@pg.com;li.y.106@pg.com;li.x.13@pg.com;zhang.s.23@pg.com;duan.y.2@pg.com;liu.ll.4@pg.com;wang.x.45@pg.com;li.j.60@pg.com;zhang.z.68@pg.com;li.r.35@pg.com;guo.f.6@pg.com;liu.w.27@pg.com;chen.ca.16@pg.com;you.j.6@pg.com" xr:uid="{B87AE712-DD3F-4B0E-B808-D760995BB5A4}"/>
     <hyperlink ref="B51" r:id="rId31" xr:uid="{CAF00F8E-AAF9-452F-9995-E8FE38E4F100}"/>
     <hyperlink ref="B30" r:id="rId32" display="zhang.ki@pg.com;li.mx@pg.com;zhang.pe.4@pg.com;xu.m.17@pg.com;gao.za@pg.com;xuan.j.3@pg.com;luo.y.15@pg.com;xie.co@pg.com;zhen.mh@pg.com;chen.ca.16@pg.com;tang.r.2@pg.com;liu.q.22@pg.com;pan.s.2@pg.com;li.g.17@pg.com;wang.y.120@pg.com;zhang.xi.25@pg.com;luo.ya@pg.com;you.j.6@pg.com;wei.m.4@pg.com;zhang.pe.4@pg.com" xr:uid="{B2D4C4A0-B4FB-4ABF-B142-1F80062EE24E}"/>
+    <hyperlink ref="B11" r:id="rId33" display="qian.yd@pg.com;wu.yo.2@pg.com;chen.ca.16@pg.com;li.ka.7@pg.com;lu.x.2@pg.com;liang.y.24@pg.com;liu.y.120@pg.com;wang.y.46@pg.com;liu.ll.4@pg.com;huo.w@pg.com;guo.j.16@pg.com; he.y.27@pg.com;sun.g.4@pg.com;jiang.h.12@pg.com;zhang.s.58@pg.com;you.j.6@pg.com;wang.w.76@pg.com; chen.x.85@pg.com; liang.r.3@pg.com;chen.by.1@pg.com;sun.j.5@pg.com" xr:uid="{B71BE6B9-5378-4EE4-A22E-813A49186707}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId33"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010009713B078B17244DA69A31CBE412DC90" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="755f9861aec9b614e9acd27b0f7495c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0f427fb9-5f4a-4368-848a-e1d5979e699a" xmlns:ns3="a7c1b07b-ba1a-4b44-b308-9b94c6deb600" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1914a1b1ac4026df9e71ff6e0eb1e4f2" ns2:_="" ns3:_="">
     <xsd:import namespace="0f427fb9-5f4a-4368-848a-e1d5979e699a"/>
@@ -5427,23 +5483,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E5D3DA-CB30-4FD2-A189-8833818D975A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF7FAD3-2A3F-4ADA-BA7E-FA527AC23AB0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5451,5 +5492,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF7FAD3-2A3F-4ADA-BA7E-FA527AC23AB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E5D3DA-CB30-4FD2-A189-8833818D975A}"/>
 </file>